--- a/raw_data/20200818_saline/20200818_Sensor2_Test_1.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_1.xlsx
@@ -1,538 +1,954 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{671CADD9-BACA-4605-B267-BBDC745E1ED0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>367.488393</v>
+        <v>367.48839299999997</v>
       </c>
       <c r="B2" s="1">
-        <v>0.102080</v>
+        <v>0.10208</v>
       </c>
       <c r="C2" s="1">
-        <v>1242.540000</v>
+        <v>1242.54</v>
       </c>
       <c r="D2" s="1">
-        <v>-311.198000</v>
+        <v>-311.19799999999998</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>377.876109</v>
+        <v>377.87610899999999</v>
       </c>
       <c r="G2" s="1">
         <v>0.104966</v>
       </c>
       <c r="H2" s="1">
-        <v>1267.850000</v>
+        <v>1267.8499999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-268.177000</v>
+        <v>-268.17700000000002</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>388.336276</v>
       </c>
       <c r="L2" s="1">
-        <v>0.107871</v>
+        <v>0.10787099999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>1303.740000</v>
+        <v>1303.74</v>
       </c>
       <c r="N2" s="1">
-        <v>-204.687000</v>
+        <v>-204.68700000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>399.119263</v>
+        <v>399.11926299999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.110866</v>
+        <v>0.11086600000000001</v>
       </c>
       <c r="R2" s="1">
-        <v>1315.440000</v>
+        <v>1315.44</v>
       </c>
       <c r="S2" s="1">
-        <v>-186.557000</v>
+        <v>-186.55699999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>409.697969</v>
@@ -541,73 +957,73 @@
         <v>0.113805</v>
       </c>
       <c r="W2" s="1">
-        <v>1328.610000</v>
+        <v>1328.61</v>
       </c>
       <c r="X2" s="1">
-        <v>-172.646000</v>
+        <v>-172.64599999999999</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
         <v>419.900643</v>
       </c>
       <c r="AA2" s="1">
-        <v>0.116639</v>
+        <v>0.11663900000000001</v>
       </c>
       <c r="AB2" s="1">
-        <v>1345.870000</v>
+        <v>1345.87</v>
       </c>
       <c r="AC2" s="1">
-        <v>-170.407000</v>
+        <v>-170.40700000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>429.760647</v>
+        <v>429.76064700000001</v>
       </c>
       <c r="AF2" s="1">
         <v>0.119378</v>
       </c>
       <c r="AG2" s="1">
-        <v>1358.810000</v>
+        <v>1358.81</v>
       </c>
       <c r="AH2" s="1">
-        <v>-180.044000</v>
+        <v>-180.04400000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>439.911775</v>
+        <v>439.91177499999998</v>
       </c>
       <c r="AK2" s="1">
         <v>0.122198</v>
       </c>
       <c r="AL2" s="1">
-        <v>1379.440000</v>
+        <v>1379.44</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.985000</v>
+        <v>-209.98500000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>450.159580</v>
+        <v>450.15958000000001</v>
       </c>
       <c r="AP2" s="1">
-        <v>0.125044</v>
+        <v>0.12504399999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1400.950000</v>
+        <v>1400.95</v>
       </c>
       <c r="AR2" s="1">
-        <v>-254.023000</v>
+        <v>-254.023</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>460.781901</v>
@@ -616,482 +1032,482 @@
         <v>0.127995</v>
       </c>
       <c r="AV2" s="1">
-        <v>1425.240000</v>
+        <v>1425.24</v>
       </c>
       <c r="AW2" s="1">
-        <v>-314.430000</v>
+        <v>-314.43</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>472.207776</v>
+        <v>472.20777600000002</v>
       </c>
       <c r="AZ2" s="1">
-        <v>0.131169</v>
+        <v>0.13116900000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1444.220000</v>
+        <v>1444.22</v>
       </c>
       <c r="BB2" s="1">
-        <v>-367.003000</v>
+        <v>-367.00299999999999</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>483.207552</v>
+        <v>483.20755200000002</v>
       </c>
       <c r="BE2" s="1">
-        <v>0.134224</v>
+        <v>0.13422400000000001</v>
       </c>
       <c r="BF2" s="1">
-        <v>1527.540000</v>
+        <v>1527.54</v>
       </c>
       <c r="BG2" s="1">
-        <v>-618.781000</v>
+        <v>-618.78099999999995</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
         <v>494.234081</v>
       </c>
       <c r="BJ2" s="1">
-        <v>0.137287</v>
+        <v>0.13728699999999999</v>
       </c>
       <c r="BK2" s="1">
-        <v>1678.410000</v>
+        <v>1678.41</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1073.400000</v>
+        <v>-1073.4000000000001</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>505.350947</v>
+        <v>505.35094700000002</v>
       </c>
       <c r="BO2" s="1">
         <v>0.140375</v>
       </c>
       <c r="BP2" s="1">
-        <v>1968.540000</v>
+        <v>1968.54</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1867.240000</v>
+        <v>-1867.24</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>515.706885</v>
+        <v>515.70688500000006</v>
       </c>
       <c r="BT2" s="1">
-        <v>0.143252</v>
+        <v>0.14325199999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>2353.490000</v>
+        <v>2353.4899999999998</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2787.140000</v>
+        <v>-2787.14</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>526.800936</v>
+        <v>526.80093599999998</v>
       </c>
       <c r="BY2" s="1">
-        <v>0.146334</v>
+        <v>0.14633399999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2838.970000</v>
+        <v>2838.97</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3801.930000</v>
+        <v>-3801.93</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>537.815560</v>
+        <v>537.81556</v>
       </c>
       <c r="CD2" s="1">
         <v>0.149393</v>
       </c>
       <c r="CE2" s="1">
-        <v>4271.320000</v>
+        <v>4271.32</v>
       </c>
       <c r="CF2" s="1">
-        <v>-6271.270000</v>
+        <v>-6271.27</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>367.869818</v>
+        <v>367.86981800000001</v>
       </c>
       <c r="B3" s="1">
         <v>0.102186</v>
       </c>
       <c r="C3" s="1">
-        <v>1242.290000</v>
+        <v>1242.29</v>
       </c>
       <c r="D3" s="1">
-        <v>-311.297000</v>
+        <v>-311.29700000000003</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>378.248641</v>
+        <v>378.24864100000002</v>
       </c>
       <c r="G3" s="1">
         <v>0.105069</v>
       </c>
       <c r="H3" s="1">
-        <v>1268.130000</v>
+        <v>1268.1300000000001</v>
       </c>
       <c r="I3" s="1">
-        <v>-268.155000</v>
+        <v>-268.15499999999997</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>388.983518</v>
       </c>
       <c r="L3" s="1">
-        <v>0.108051</v>
+        <v>0.10805099999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>1303.800000</v>
+        <v>1303.8</v>
       </c>
       <c r="N3" s="1">
-        <v>-204.982000</v>
+        <v>-204.982</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>399.542879</v>
+        <v>399.54287900000003</v>
       </c>
       <c r="Q3" s="1">
         <v>0.110984</v>
       </c>
       <c r="R3" s="1">
-        <v>1315.380000</v>
+        <v>1315.38</v>
       </c>
       <c r="S3" s="1">
-        <v>-186.627000</v>
+        <v>-186.62700000000001</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>410.109649</v>
+        <v>410.10964899999999</v>
       </c>
       <c r="V3" s="1">
-        <v>0.113919</v>
+        <v>0.11391900000000001</v>
       </c>
       <c r="W3" s="1">
-        <v>1328.600000</v>
+        <v>1328.6</v>
       </c>
       <c r="X3" s="1">
-        <v>-172.631000</v>
+        <v>-172.631</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>420.253795</v>
+        <v>420.25379500000003</v>
       </c>
       <c r="AA3" s="1">
-        <v>0.116737</v>
+        <v>0.11673699999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>1345.920000</v>
+        <v>1345.92</v>
       </c>
       <c r="AC3" s="1">
-        <v>-170.438000</v>
+        <v>-170.43799999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
         <v>430.146502</v>
       </c>
       <c r="AF3" s="1">
-        <v>0.119485</v>
+        <v>0.11948499999999999</v>
       </c>
       <c r="AG3" s="1">
-        <v>1358.820000</v>
+        <v>1358.82</v>
       </c>
       <c r="AH3" s="1">
-        <v>-180.031000</v>
+        <v>-180.03100000000001</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>440.292205</v>
+        <v>440.29220500000002</v>
       </c>
       <c r="AK3" s="1">
         <v>0.122303</v>
       </c>
       <c r="AL3" s="1">
-        <v>1379.460000</v>
+        <v>1379.46</v>
       </c>
       <c r="AM3" s="1">
-        <v>-209.992000</v>
+        <v>-209.99199999999999</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>450.589117</v>
+        <v>450.58911699999999</v>
       </c>
       <c r="AP3" s="1">
         <v>0.125164</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1400.970000</v>
+        <v>1400.97</v>
       </c>
       <c r="AR3" s="1">
-        <v>-254.003000</v>
+        <v>-254.00299999999999</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>461.526895</v>
+        <v>461.52689500000002</v>
       </c>
       <c r="AU3" s="1">
-        <v>0.128202</v>
+        <v>0.12820200000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1425.240000</v>
+        <v>1425.24</v>
       </c>
       <c r="AW3" s="1">
-        <v>-314.434000</v>
+        <v>-314.43400000000003</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>472.644254</v>
+        <v>472.64425399999999</v>
       </c>
       <c r="AZ3" s="1">
-        <v>0.131290</v>
+        <v>0.13128999999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1444.260000</v>
+        <v>1444.26</v>
       </c>
       <c r="BB3" s="1">
-        <v>-367.018000</v>
+        <v>-367.01799999999997</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>483.572576</v>
+        <v>483.57257600000003</v>
       </c>
       <c r="BE3" s="1">
         <v>0.134326</v>
       </c>
       <c r="BF3" s="1">
-        <v>1527.560000</v>
+        <v>1527.56</v>
       </c>
       <c r="BG3" s="1">
-        <v>-618.767000</v>
+        <v>-618.76700000000005</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
         <v>494.611537</v>
       </c>
       <c r="BJ3" s="1">
-        <v>0.137392</v>
+        <v>0.13739199999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1678.230000</v>
+        <v>1678.23</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1073.510000</v>
+        <v>-1073.51</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
         <v>505.787891</v>
       </c>
       <c r="BO3" s="1">
-        <v>0.140497</v>
+        <v>0.14049700000000001</v>
       </c>
       <c r="BP3" s="1">
-        <v>1968.260000</v>
+        <v>1968.26</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1867.340000</v>
+        <v>-1867.34</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>516.209828</v>
+        <v>516.20982800000002</v>
       </c>
       <c r="BT3" s="1">
-        <v>0.143392</v>
+        <v>0.14339199999999999</v>
       </c>
       <c r="BU3" s="1">
-        <v>2354.400000</v>
+        <v>2354.4</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2787.200000</v>
+        <v>-2787.2</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>526.963094</v>
+        <v>526.96309399999996</v>
       </c>
       <c r="BY3" s="1">
-        <v>0.146379</v>
+        <v>0.14637900000000001</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2838.580000</v>
+        <v>2838.58</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3802.260000</v>
+        <v>-3802.26</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>538.349288</v>
       </c>
       <c r="CD3" s="1">
-        <v>0.149541</v>
+        <v>0.14954100000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>4288.180000</v>
+        <v>4288.18</v>
       </c>
       <c r="CF3" s="1">
-        <v>-6266.420000</v>
+        <v>-6266.42</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>368.529993</v>
+        <v>368.52999299999999</v>
       </c>
       <c r="B4" s="1">
         <v>0.102369</v>
       </c>
       <c r="C4" s="1">
-        <v>1242.500000</v>
+        <v>1242.5</v>
       </c>
       <c r="D4" s="1">
-        <v>-311.278000</v>
+        <v>-311.27800000000002</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>378.898363</v>
+        <v>378.89836300000002</v>
       </c>
       <c r="G4" s="1">
-        <v>0.105250</v>
+        <v>0.10525</v>
       </c>
       <c r="H4" s="1">
-        <v>1267.970000</v>
+        <v>1267.97</v>
       </c>
       <c r="I4" s="1">
-        <v>-268.430000</v>
+        <v>-268.43</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>389.367955</v>
+        <v>389.36795499999999</v>
       </c>
       <c r="L4" s="1">
         <v>0.108158</v>
       </c>
       <c r="M4" s="1">
-        <v>1303.510000</v>
+        <v>1303.51</v>
       </c>
       <c r="N4" s="1">
-        <v>-205.048000</v>
+        <v>-205.048</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>399.893518</v>
+        <v>399.89351799999997</v>
       </c>
       <c r="Q4" s="1">
         <v>0.111082</v>
       </c>
       <c r="R4" s="1">
-        <v>1315.300000</v>
+        <v>1315.3</v>
       </c>
       <c r="S4" s="1">
-        <v>-186.600000</v>
+        <v>-186.6</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>410.443920</v>
+        <v>410.44391999999999</v>
       </c>
       <c r="V4" s="1">
         <v>0.114012</v>
       </c>
       <c r="W4" s="1">
-        <v>1328.380000</v>
+        <v>1328.38</v>
       </c>
       <c r="X4" s="1">
-        <v>-172.755000</v>
+        <v>-172.755</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>420.603011</v>
+        <v>420.60301099999998</v>
       </c>
       <c r="AA4" s="1">
-        <v>0.116834</v>
+        <v>0.11683399999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1345.950000</v>
+        <v>1345.95</v>
       </c>
       <c r="AC4" s="1">
-        <v>-170.427000</v>
+        <v>-170.42699999999999</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>430.565127</v>
+        <v>430.56512700000002</v>
       </c>
       <c r="AF4" s="1">
         <v>0.119601</v>
       </c>
       <c r="AG4" s="1">
-        <v>1358.860000</v>
+        <v>1358.86</v>
       </c>
       <c r="AH4" s="1">
-        <v>-180.040000</v>
+        <v>-180.04</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
         <v>440.719224</v>
@@ -1100,195 +1516,195 @@
         <v>0.122422</v>
       </c>
       <c r="AL4" s="1">
-        <v>1379.470000</v>
+        <v>1379.47</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.966000</v>
+        <v>-209.96600000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>450.910027</v>
+        <v>450.91002700000001</v>
       </c>
       <c r="AP4" s="1">
         <v>0.125253</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1400.990000</v>
+        <v>1400.99</v>
       </c>
       <c r="AR4" s="1">
-        <v>-254.035000</v>
+        <v>-254.035</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>461.892942</v>
+        <v>461.89294200000001</v>
       </c>
       <c r="AU4" s="1">
         <v>0.128304</v>
       </c>
       <c r="AV4" s="1">
-        <v>1425.200000</v>
+        <v>1425.2</v>
       </c>
       <c r="AW4" s="1">
-        <v>-314.410000</v>
+        <v>-314.41000000000003</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>473.005806</v>
+        <v>473.00580600000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>0.131391</v>
+        <v>0.13139100000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1444.250000</v>
+        <v>1444.25</v>
       </c>
       <c r="BB4" s="1">
-        <v>-367.031000</v>
+        <v>-367.03100000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>483.931215</v>
+        <v>483.93121500000001</v>
       </c>
       <c r="BE4" s="1">
-        <v>0.134425</v>
+        <v>0.13442499999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1527.560000</v>
+        <v>1527.56</v>
       </c>
       <c r="BG4" s="1">
-        <v>-618.753000</v>
+        <v>-618.75300000000004</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>495.362480</v>
+        <v>495.36248000000001</v>
       </c>
       <c r="BJ4" s="1">
         <v>0.137601</v>
       </c>
       <c r="BK4" s="1">
-        <v>1678.200000</v>
+        <v>1678.2</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1073.500000</v>
+        <v>-1073.5</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>506.205027</v>
+        <v>506.20502699999997</v>
       </c>
       <c r="BO4" s="1">
-        <v>0.140613</v>
+        <v>0.14061299999999999</v>
       </c>
       <c r="BP4" s="1">
-        <v>1968.240000</v>
+        <v>1968.24</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1867.640000</v>
+        <v>-1867.64</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>516.646804</v>
+        <v>516.64680399999997</v>
       </c>
       <c r="BT4" s="1">
         <v>0.143513</v>
       </c>
       <c r="BU4" s="1">
-        <v>2355.340000</v>
+        <v>2355.34</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2787.980000</v>
+        <v>-2787.98</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>527.416438</v>
+        <v>527.41643799999997</v>
       </c>
       <c r="BY4" s="1">
         <v>0.146505</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2838.550000</v>
+        <v>2838.55</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3801.600000</v>
+        <v>-3801.6</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>538.867575</v>
+        <v>538.86757499999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>0.149685</v>
+        <v>0.14968500000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>4270.510000</v>
+        <v>4270.51</v>
       </c>
       <c r="CF4" s="1">
-        <v>-6248.990000</v>
+        <v>-6248.99</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>368.896535</v>
+        <v>368.89653499999997</v>
       </c>
       <c r="B5" s="1">
-        <v>0.102471</v>
+        <v>0.10247100000000001</v>
       </c>
       <c r="C5" s="1">
-        <v>1242.630000</v>
+        <v>1242.6300000000001</v>
       </c>
       <c r="D5" s="1">
-        <v>-311.368000</v>
+        <v>-311.36799999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>379.280805</v>
+        <v>379.28080499999999</v>
       </c>
       <c r="G5" s="1">
-        <v>0.105356</v>
+        <v>0.10535600000000001</v>
       </c>
       <c r="H5" s="1">
-        <v>1267.860000</v>
+        <v>1267.8599999999999</v>
       </c>
       <c r="I5" s="1">
-        <v>-268.418000</v>
+        <v>-268.41800000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>389.717595</v>
+        <v>389.71759500000002</v>
       </c>
       <c r="L5" s="1">
         <v>0.108255</v>
       </c>
       <c r="M5" s="1">
-        <v>1303.400000</v>
+        <v>1303.4000000000001</v>
       </c>
       <c r="N5" s="1">
-        <v>-204.595000</v>
+        <v>-204.595</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
         <v>400.240227</v>
@@ -1297,13 +1713,13 @@
         <v>0.111178</v>
       </c>
       <c r="R5" s="1">
-        <v>1315.310000</v>
+        <v>1315.31</v>
       </c>
       <c r="S5" s="1">
-        <v>-186.582000</v>
+        <v>-186.58199999999999</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>410.799057</v>
@@ -1312,240 +1728,240 @@
         <v>0.114111</v>
       </c>
       <c r="W5" s="1">
-        <v>1328.580000</v>
+        <v>1328.58</v>
       </c>
       <c r="X5" s="1">
-        <v>-172.714000</v>
+        <v>-172.714</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>421.022321</v>
+        <v>421.02232099999998</v>
       </c>
       <c r="AA5" s="1">
         <v>0.116951</v>
       </c>
       <c r="AB5" s="1">
-        <v>1345.850000</v>
+        <v>1345.85</v>
       </c>
       <c r="AC5" s="1">
-        <v>-170.396000</v>
+        <v>-170.39599999999999</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>430.861743</v>
+        <v>430.86174299999999</v>
       </c>
       <c r="AF5" s="1">
         <v>0.119684</v>
       </c>
       <c r="AG5" s="1">
-        <v>1358.800000</v>
+        <v>1358.8</v>
       </c>
       <c r="AH5" s="1">
-        <v>-179.994000</v>
+        <v>-179.994</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>441.015337</v>
+        <v>441.01533699999999</v>
       </c>
       <c r="AK5" s="1">
         <v>0.122504</v>
       </c>
       <c r="AL5" s="1">
-        <v>1379.450000</v>
+        <v>1379.45</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.959000</v>
+        <v>-209.959</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>451.272107</v>
+        <v>451.27210700000001</v>
       </c>
       <c r="AP5" s="1">
-        <v>0.125353</v>
+        <v>0.12535299999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1401.010000</v>
+        <v>1401.01</v>
       </c>
       <c r="AR5" s="1">
-        <v>-254.013000</v>
+        <v>-254.01300000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>462.259515</v>
+        <v>462.25951500000002</v>
       </c>
       <c r="AU5" s="1">
-        <v>0.128405</v>
+        <v>0.12840499999999999</v>
       </c>
       <c r="AV5" s="1">
-        <v>1425.260000</v>
+        <v>1425.26</v>
       </c>
       <c r="AW5" s="1">
-        <v>-314.434000</v>
+        <v>-314.43400000000003</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>473.362925</v>
+        <v>473.36292500000002</v>
       </c>
       <c r="AZ5" s="1">
-        <v>0.131490</v>
+        <v>0.13149</v>
       </c>
       <c r="BA5" s="1">
-        <v>1444.230000</v>
+        <v>1444.23</v>
       </c>
       <c r="BB5" s="1">
-        <v>-366.993000</v>
+        <v>-366.99299999999999</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>484.662815</v>
+        <v>484.66281500000002</v>
       </c>
       <c r="BE5" s="1">
         <v>0.134629</v>
       </c>
       <c r="BF5" s="1">
-        <v>1527.500000</v>
+        <v>1527.5</v>
       </c>
       <c r="BG5" s="1">
-        <v>-618.743000</v>
+        <v>-618.74300000000005</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>495.755840</v>
+        <v>495.75583999999998</v>
       </c>
       <c r="BJ5" s="1">
-        <v>0.137710</v>
+        <v>0.13771</v>
       </c>
       <c r="BK5" s="1">
-        <v>1678.170000</v>
+        <v>1678.17</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1073.540000</v>
+        <v>-1073.54</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>506.604306</v>
+        <v>506.60430600000001</v>
       </c>
       <c r="BO5" s="1">
-        <v>0.140723</v>
+        <v>0.14072299999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1968.140000</v>
+        <v>1968.14</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1867.520000</v>
+        <v>-1867.52</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>517.073861</v>
+        <v>517.07386099999997</v>
       </c>
       <c r="BT5" s="1">
-        <v>0.143632</v>
+        <v>0.14363200000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>2356.010000</v>
+        <v>2356.0100000000002</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2788.700000</v>
+        <v>-2788.7</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>528.171349</v>
+        <v>528.17134899999996</v>
       </c>
       <c r="BY5" s="1">
-        <v>0.146714</v>
+        <v>0.14671400000000001</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2838.880000</v>
+        <v>2838.88</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3800.930000</v>
+        <v>-3800.93</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>539.718213</v>
+        <v>539.71821299999999</v>
       </c>
       <c r="CD5" s="1">
         <v>0.149922</v>
       </c>
       <c r="CE5" s="1">
-        <v>4290.430000</v>
+        <v>4290.43</v>
       </c>
       <c r="CF5" s="1">
-        <v>-6258.530000</v>
+        <v>-6258.53</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>369.235798</v>
+        <v>369.23579799999999</v>
       </c>
       <c r="B6" s="1">
         <v>0.102565</v>
       </c>
       <c r="C6" s="1">
-        <v>1242.660000</v>
+        <v>1242.6600000000001</v>
       </c>
       <c r="D6" s="1">
-        <v>-310.888000</v>
+        <v>-310.88799999999998</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>379.628970</v>
+        <v>379.62896999999998</v>
       </c>
       <c r="G6" s="1">
         <v>0.105452</v>
       </c>
       <c r="H6" s="1">
-        <v>1267.790000</v>
+        <v>1267.79</v>
       </c>
       <c r="I6" s="1">
-        <v>-268.214000</v>
+        <v>-268.214</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>390.062810</v>
+        <v>390.06281000000001</v>
       </c>
       <c r="L6" s="1">
         <v>0.108351</v>
       </c>
       <c r="M6" s="1">
-        <v>1303.400000</v>
+        <v>1303.4000000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-205.115000</v>
+        <v>-205.11500000000001</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>400.656364</v>
@@ -1554,982 +1970,982 @@
         <v>0.111293</v>
       </c>
       <c r="R6" s="1">
-        <v>1315.350000</v>
+        <v>1315.35</v>
       </c>
       <c r="S6" s="1">
-        <v>-186.491000</v>
+        <v>-186.49100000000001</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>411.235535</v>
+        <v>411.23553500000003</v>
       </c>
       <c r="V6" s="1">
         <v>0.114232</v>
       </c>
       <c r="W6" s="1">
-        <v>1328.580000</v>
+        <v>1328.58</v>
       </c>
       <c r="X6" s="1">
-        <v>-172.765000</v>
+        <v>-172.76499999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>421.296883</v>
+        <v>421.29688299999998</v>
       </c>
       <c r="AA6" s="1">
-        <v>0.117027</v>
+        <v>0.11702700000000001</v>
       </c>
       <c r="AB6" s="1">
-        <v>1345.860000</v>
+        <v>1345.86</v>
       </c>
       <c r="AC6" s="1">
-        <v>-170.331000</v>
+        <v>-170.33099999999999</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>431.205462</v>
+        <v>431.20546200000001</v>
       </c>
       <c r="AF6" s="1">
         <v>0.119779</v>
       </c>
       <c r="AG6" s="1">
-        <v>1358.810000</v>
+        <v>1358.81</v>
       </c>
       <c r="AH6" s="1">
-        <v>-179.991000</v>
+        <v>-179.99100000000001</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>441.365512</v>
+        <v>441.36551200000002</v>
       </c>
       <c r="AK6" s="1">
         <v>0.122602</v>
       </c>
       <c r="AL6" s="1">
-        <v>1379.460000</v>
+        <v>1379.46</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.952000</v>
+        <v>-209.952</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
         <v>451.634185</v>
       </c>
       <c r="AP6" s="1">
-        <v>0.125454</v>
+        <v>0.12545400000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1400.960000</v>
+        <v>1400.96</v>
       </c>
       <c r="AR6" s="1">
-        <v>-254.025000</v>
+        <v>-254.02500000000001</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>462.987610</v>
+        <v>462.98761000000002</v>
       </c>
       <c r="AU6" s="1">
         <v>0.128608</v>
       </c>
       <c r="AV6" s="1">
-        <v>1425.230000</v>
+        <v>1425.23</v>
       </c>
       <c r="AW6" s="1">
-        <v>-314.411000</v>
+        <v>-314.411</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>474.083612</v>
+        <v>474.08361200000002</v>
       </c>
       <c r="AZ6" s="1">
-        <v>0.131690</v>
+        <v>0.13169</v>
       </c>
       <c r="BA6" s="1">
-        <v>1444.240000</v>
+        <v>1444.24</v>
       </c>
       <c r="BB6" s="1">
-        <v>-366.988000</v>
+        <v>-366.988</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>485.041725</v>
+        <v>485.04172499999999</v>
       </c>
       <c r="BE6" s="1">
-        <v>0.134734</v>
+        <v>0.13473399999999999</v>
       </c>
       <c r="BF6" s="1">
-        <v>1527.490000</v>
+        <v>1527.49</v>
       </c>
       <c r="BG6" s="1">
-        <v>-618.706000</v>
+        <v>-618.70600000000002</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>496.132271</v>
       </c>
       <c r="BJ6" s="1">
-        <v>0.137815</v>
+        <v>0.13781499999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1678.280000</v>
+        <v>1678.28</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1073.490000</v>
+        <v>-1073.49</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>507.026897</v>
+        <v>507.02689700000002</v>
       </c>
       <c r="BO6" s="1">
-        <v>0.140841</v>
+        <v>0.14084099999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1968.300000</v>
+        <v>1968.3</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1867.520000</v>
+        <v>-1867.52</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>517.784662</v>
+        <v>517.78466200000003</v>
       </c>
       <c r="BT6" s="1">
-        <v>0.143829</v>
+        <v>0.14382900000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>2355.730000</v>
+        <v>2355.73</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2789.840000</v>
+        <v>-2789.84</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>528.319190</v>
+        <v>528.31919000000005</v>
       </c>
       <c r="BY6" s="1">
         <v>0.146755</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2838.440000</v>
+        <v>2838.44</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3801.470000</v>
+        <v>-3801.47</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>539.947861</v>
+        <v>539.94786099999999</v>
       </c>
       <c r="CD6" s="1">
-        <v>0.149986</v>
+        <v>0.14998600000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>4289.900000</v>
+        <v>4289.8999999999996</v>
       </c>
       <c r="CF6" s="1">
-        <v>-6263.210000</v>
+        <v>-6263.21</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>369.581014</v>
+        <v>369.58101399999998</v>
       </c>
       <c r="B7" s="1">
         <v>0.102661</v>
       </c>
       <c r="C7" s="1">
-        <v>1242.210000</v>
+        <v>1242.21</v>
       </c>
       <c r="D7" s="1">
-        <v>-311.268000</v>
+        <v>-311.26799999999997</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>380.054568</v>
+        <v>380.05456800000002</v>
       </c>
       <c r="G7" s="1">
         <v>0.105571</v>
       </c>
       <c r="H7" s="1">
-        <v>1267.950000</v>
+        <v>1267.95</v>
       </c>
       <c r="I7" s="1">
-        <v>-268.283000</v>
+        <v>-268.28300000000002</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>390.479947</v>
+        <v>390.47994699999998</v>
       </c>
       <c r="L7" s="1">
-        <v>0.108467</v>
+        <v>0.10846699999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>1303.530000</v>
+        <v>1303.53</v>
       </c>
       <c r="N7" s="1">
-        <v>-205.069000</v>
+        <v>-205.06899999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>400.946558</v>
+        <v>400.94655799999998</v>
       </c>
       <c r="Q7" s="1">
         <v>0.111374</v>
       </c>
       <c r="R7" s="1">
-        <v>1315.390000</v>
+        <v>1315.39</v>
       </c>
       <c r="S7" s="1">
-        <v>-186.514000</v>
+        <v>-186.51400000000001</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>411.514782</v>
+        <v>411.51478200000003</v>
       </c>
       <c r="V7" s="1">
-        <v>0.114310</v>
+        <v>0.11430999999999999</v>
       </c>
       <c r="W7" s="1">
-        <v>1328.520000</v>
+        <v>1328.52</v>
       </c>
       <c r="X7" s="1">
-        <v>-172.816000</v>
+        <v>-172.816</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>421.648545</v>
+        <v>421.64854500000001</v>
       </c>
       <c r="AA7" s="1">
-        <v>0.117125</v>
+        <v>0.11712500000000001</v>
       </c>
       <c r="AB7" s="1">
-        <v>1345.830000</v>
+        <v>1345.83</v>
       </c>
       <c r="AC7" s="1">
-        <v>-170.205000</v>
+        <v>-170.20500000000001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>431.550180</v>
+        <v>431.55018000000001</v>
       </c>
       <c r="AF7" s="1">
         <v>0.119875</v>
       </c>
       <c r="AG7" s="1">
-        <v>1358.830000</v>
+        <v>1358.83</v>
       </c>
       <c r="AH7" s="1">
-        <v>-180.010000</v>
+        <v>-180.01</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>441.712711</v>
+        <v>441.71271100000001</v>
       </c>
       <c r="AK7" s="1">
         <v>0.122698</v>
       </c>
       <c r="AL7" s="1">
-        <v>1379.460000</v>
+        <v>1379.46</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.954000</v>
+        <v>-209.95400000000001</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>452.350904</v>
+        <v>452.35090400000001</v>
       </c>
       <c r="AP7" s="1">
-        <v>0.125653</v>
+        <v>0.12565299999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1400.950000</v>
+        <v>1400.95</v>
       </c>
       <c r="AR7" s="1">
-        <v>-254.005000</v>
+        <v>-254.005</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>463.351180</v>
+        <v>463.35118</v>
       </c>
       <c r="AU7" s="1">
-        <v>0.128709</v>
+        <v>0.12870899999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>1425.210000</v>
+        <v>1425.21</v>
       </c>
       <c r="AW7" s="1">
-        <v>-314.446000</v>
+        <v>-314.44600000000003</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>474.469035</v>
+        <v>474.46903500000002</v>
       </c>
       <c r="AZ7" s="1">
         <v>0.131797</v>
       </c>
       <c r="BA7" s="1">
-        <v>1444.220000</v>
+        <v>1444.22</v>
       </c>
       <c r="BB7" s="1">
-        <v>-367.019000</v>
+        <v>-367.01900000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>485.400334</v>
+        <v>485.40033399999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>0.134833</v>
+        <v>0.13483300000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1527.530000</v>
+        <v>1527.53</v>
       </c>
       <c r="BG7" s="1">
-        <v>-618.758000</v>
+        <v>-618.75800000000004</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>496.819232</v>
       </c>
       <c r="BJ7" s="1">
-        <v>0.138005</v>
+        <v>0.13800499999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1678.160000</v>
+        <v>1678.16</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1073.430000</v>
+        <v>-1073.43</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>507.742127</v>
+        <v>507.74212699999998</v>
       </c>
       <c r="BO7" s="1">
         <v>0.141039</v>
       </c>
       <c r="BP7" s="1">
-        <v>1968.220000</v>
+        <v>1968.22</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1867.580000</v>
+        <v>-1867.58</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
         <v>517.917554</v>
       </c>
       <c r="BT7" s="1">
-        <v>0.143866</v>
+        <v>0.14386599999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>2355.840000</v>
+        <v>2355.84</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2790.610000</v>
+        <v>-2790.61</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>528.743236</v>
+        <v>528.74323600000002</v>
       </c>
       <c r="BY7" s="1">
         <v>0.146873</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2838.740000</v>
+        <v>2838.74</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3801.610000</v>
+        <v>-3801.61</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>540.465188</v>
+        <v>540.46518800000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>0.150129</v>
+        <v>0.15012900000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>4280.910000</v>
+        <v>4280.91</v>
       </c>
       <c r="CF7" s="1">
-        <v>-6247.440000</v>
+        <v>-6247.44</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>370.002154</v>
+        <v>370.00215400000002</v>
       </c>
       <c r="B8" s="1">
-        <v>0.102778</v>
+        <v>0.10277799999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>1242.470000</v>
+        <v>1242.47</v>
       </c>
       <c r="D8" s="1">
-        <v>-311.172000</v>
+        <v>-311.17200000000003</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>380.328857</v>
+        <v>380.32885700000003</v>
       </c>
       <c r="G8" s="1">
         <v>0.105647</v>
       </c>
       <c r="H8" s="1">
-        <v>1267.970000</v>
+        <v>1267.97</v>
       </c>
       <c r="I8" s="1">
-        <v>-268.383000</v>
+        <v>-268.38299999999998</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>390.766138</v>
+        <v>390.76613800000001</v>
       </c>
       <c r="L8" s="1">
         <v>0.108546</v>
       </c>
       <c r="M8" s="1">
-        <v>1303.470000</v>
+        <v>1303.47</v>
       </c>
       <c r="N8" s="1">
-        <v>-205.216000</v>
+        <v>-205.21600000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>401.298188</v>
+        <v>401.29818799999998</v>
       </c>
       <c r="Q8" s="1">
         <v>0.111472</v>
       </c>
       <c r="R8" s="1">
-        <v>1315.430000</v>
+        <v>1315.43</v>
       </c>
       <c r="S8" s="1">
-        <v>-186.576000</v>
+        <v>-186.57599999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>411.854047</v>
+        <v>411.85404699999998</v>
       </c>
       <c r="V8" s="1">
-        <v>0.114404</v>
+        <v>0.11440400000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1328.430000</v>
+        <v>1328.43</v>
       </c>
       <c r="X8" s="1">
-        <v>-172.866000</v>
+        <v>-172.86600000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>422.000705</v>
+        <v>422.00070499999998</v>
       </c>
       <c r="AA8" s="1">
-        <v>0.117222</v>
+        <v>0.11722200000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1345.900000</v>
+        <v>1345.9</v>
       </c>
       <c r="AC8" s="1">
-        <v>-170.349000</v>
+        <v>-170.34899999999999</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>432.237965</v>
+        <v>432.23796499999997</v>
       </c>
       <c r="AF8" s="1">
-        <v>0.120066</v>
+        <v>0.12006600000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1358.820000</v>
+        <v>1358.82</v>
       </c>
       <c r="AH8" s="1">
-        <v>-180.026000</v>
+        <v>-180.02600000000001</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>442.412108</v>
+        <v>442.41210799999999</v>
       </c>
       <c r="AK8" s="1">
         <v>0.122892</v>
       </c>
       <c r="AL8" s="1">
-        <v>1379.470000</v>
+        <v>1379.47</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.984000</v>
+        <v>-209.98400000000001</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>452.713017</v>
+        <v>452.71301699999998</v>
       </c>
       <c r="AP8" s="1">
         <v>0.125754</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1401.000000</v>
+        <v>1401</v>
       </c>
       <c r="AR8" s="1">
-        <v>-254.008000</v>
+        <v>-254.00800000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>463.717258</v>
+        <v>463.71725800000002</v>
       </c>
       <c r="AU8" s="1">
-        <v>0.128810</v>
+        <v>0.12881000000000001</v>
       </c>
       <c r="AV8" s="1">
-        <v>1425.230000</v>
+        <v>1425.23</v>
       </c>
       <c r="AW8" s="1">
-        <v>-314.436000</v>
+        <v>-314.43599999999998</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>474.827115</v>
+        <v>474.82711499999999</v>
       </c>
       <c r="AZ8" s="1">
-        <v>0.131896</v>
+        <v>0.13189600000000001</v>
       </c>
       <c r="BA8" s="1">
-        <v>1444.250000</v>
+        <v>1444.25</v>
       </c>
       <c r="BB8" s="1">
-        <v>-366.981000</v>
+        <v>-366.98099999999999</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>486.065965</v>
+        <v>486.06596500000001</v>
       </c>
       <c r="BE8" s="1">
         <v>0.135018</v>
       </c>
       <c r="BF8" s="1">
-        <v>1527.540000</v>
+        <v>1527.54</v>
       </c>
       <c r="BG8" s="1">
-        <v>-618.719000</v>
+        <v>-618.71900000000005</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
         <v>497.287982</v>
       </c>
       <c r="BJ8" s="1">
-        <v>0.138136</v>
+        <v>0.13813600000000001</v>
       </c>
       <c r="BK8" s="1">
-        <v>1678.210000</v>
+        <v>1678.21</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1073.460000</v>
+        <v>-1073.46</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>507.853741</v>
+        <v>507.85374100000001</v>
       </c>
       <c r="BO8" s="1">
-        <v>0.141070</v>
+        <v>0.14107</v>
       </c>
       <c r="BP8" s="1">
-        <v>1968.150000</v>
+        <v>1968.15</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1867.540000</v>
+        <v>-1867.54</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>518.353539</v>
+        <v>518.35353899999996</v>
       </c>
       <c r="BT8" s="1">
         <v>0.143987</v>
       </c>
       <c r="BU8" s="1">
-        <v>2354.900000</v>
+        <v>2354.9</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2791.400000</v>
+        <v>-2791.4</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>529.162658</v>
+        <v>529.16265799999996</v>
       </c>
       <c r="BY8" s="1">
-        <v>0.146990</v>
+        <v>0.14699000000000001</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2838.400000</v>
+        <v>2838.4</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3801.780000</v>
+        <v>-3801.78</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>540.986485</v>
+        <v>540.98648500000002</v>
       </c>
       <c r="CD8" s="1">
-        <v>0.150274</v>
+        <v>0.15027399999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>4271.620000</v>
+        <v>4271.62</v>
       </c>
       <c r="CF8" s="1">
-        <v>-6271.110000</v>
+        <v>-6271.11</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>370.273963</v>
+        <v>370.27396299999998</v>
       </c>
       <c r="B9" s="1">
         <v>0.102854</v>
       </c>
       <c r="C9" s="1">
-        <v>1242.360000</v>
+        <v>1242.3599999999999</v>
       </c>
       <c r="D9" s="1">
-        <v>-311.053000</v>
+        <v>-311.053</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>380.674041</v>
+        <v>380.67404099999999</v>
       </c>
       <c r="G9" s="1">
         <v>0.105743</v>
       </c>
       <c r="H9" s="1">
-        <v>1267.510000</v>
+        <v>1267.51</v>
       </c>
       <c r="I9" s="1">
-        <v>-268.654000</v>
+        <v>-268.654</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>391.114363</v>
+        <v>391.11436300000003</v>
       </c>
       <c r="L9" s="1">
         <v>0.108643</v>
       </c>
       <c r="M9" s="1">
-        <v>1303.620000</v>
+        <v>1303.6199999999999</v>
       </c>
       <c r="N9" s="1">
-        <v>-205.014000</v>
+        <v>-205.01400000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>401.645425</v>
+        <v>401.64542499999999</v>
       </c>
       <c r="Q9" s="1">
         <v>0.111568</v>
       </c>
       <c r="R9" s="1">
-        <v>1315.340000</v>
+        <v>1315.34</v>
       </c>
       <c r="S9" s="1">
-        <v>-186.628000</v>
+        <v>-186.62799999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>412.542029</v>
+        <v>412.54202900000001</v>
       </c>
       <c r="V9" s="1">
         <v>0.114595</v>
       </c>
       <c r="W9" s="1">
-        <v>1328.630000</v>
+        <v>1328.63</v>
       </c>
       <c r="X9" s="1">
-        <v>-172.766000</v>
+        <v>-172.76599999999999</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>422.692624</v>
+        <v>422.69262400000002</v>
       </c>
       <c r="AA9" s="1">
-        <v>0.117415</v>
+        <v>0.11741500000000001</v>
       </c>
       <c r="AB9" s="1">
-        <v>1345.800000</v>
+        <v>1345.8</v>
       </c>
       <c r="AC9" s="1">
-        <v>-170.449000</v>
+        <v>-170.44900000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>432.579875</v>
+        <v>432.57987500000002</v>
       </c>
       <c r="AF9" s="1">
         <v>0.120161</v>
       </c>
       <c r="AG9" s="1">
-        <v>1358.860000</v>
+        <v>1358.86</v>
       </c>
       <c r="AH9" s="1">
-        <v>-179.976000</v>
+        <v>-179.976</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>442.758807</v>
+        <v>442.75880699999999</v>
       </c>
       <c r="AK9" s="1">
         <v>0.122989</v>
       </c>
       <c r="AL9" s="1">
-        <v>1379.440000</v>
+        <v>1379.44</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.974000</v>
+        <v>-209.97399999999999</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>453.072088</v>
+        <v>453.07208800000001</v>
       </c>
       <c r="AP9" s="1">
-        <v>0.125853</v>
+        <v>0.12585299999999999</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1400.980000</v>
+        <v>1400.98</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.991000</v>
+        <v>-253.99100000000001</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>464.390792</v>
+        <v>464.39079199999998</v>
       </c>
       <c r="AU9" s="1">
         <v>0.128997</v>
       </c>
       <c r="AV9" s="1">
-        <v>1425.200000</v>
+        <v>1425.2</v>
       </c>
       <c r="AW9" s="1">
-        <v>-314.396000</v>
+        <v>-314.39600000000002</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>475.490798</v>
+        <v>475.49079799999998</v>
       </c>
       <c r="AZ9" s="1">
         <v>0.132081</v>
       </c>
       <c r="BA9" s="1">
-        <v>1444.250000</v>
+        <v>1444.25</v>
       </c>
       <c r="BB9" s="1">
-        <v>-366.979000</v>
+        <v>-366.97899999999998</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>486.520301</v>
+        <v>486.52030100000002</v>
       </c>
       <c r="BE9" s="1">
-        <v>0.135145</v>
+        <v>0.13514499999999999</v>
       </c>
       <c r="BF9" s="1">
-        <v>1527.500000</v>
+        <v>1527.5</v>
       </c>
       <c r="BG9" s="1">
-        <v>-618.721000</v>
+        <v>-618.721</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>497.676814</v>
+        <v>497.67681399999998</v>
       </c>
       <c r="BJ9" s="1">
-        <v>0.138244</v>
+        <v>0.13824400000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1678.160000</v>
+        <v>1678.16</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1073.460000</v>
+        <v>-1073.46</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>508.266895</v>
+        <v>508.26689499999998</v>
       </c>
       <c r="BO9" s="1">
         <v>0.141185</v>
       </c>
       <c r="BP9" s="1">
-        <v>1967.910000</v>
+        <v>1967.91</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1867.590000</v>
+        <v>-1867.59</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>518.785057</v>
+        <v>518.78505700000005</v>
       </c>
       <c r="BT9" s="1">
-        <v>0.144107</v>
+        <v>0.14410700000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>2354.110000</v>
+        <v>2354.11</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2792.160000</v>
+        <v>-2792.16</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>529.596850</v>
+        <v>529.59685000000002</v>
       </c>
       <c r="BY9" s="1">
-        <v>0.147110</v>
+        <v>0.14710999999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2838.890000</v>
+        <v>2838.89</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3801.230000</v>
+        <v>-3801.23</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>541.526165</v>
+        <v>541.52616499999999</v>
       </c>
       <c r="CD9" s="1">
         <v>0.150424</v>
       </c>
       <c r="CE9" s="1">
-        <v>4285.240000</v>
+        <v>4285.24</v>
       </c>
       <c r="CF9" s="1">
-        <v>-6257.300000</v>
+        <v>-6257.3</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
         <v>370.614709</v>
       </c>
@@ -2537,300 +2953,300 @@
         <v>0.102949</v>
       </c>
       <c r="C10" s="1">
-        <v>1242.420000</v>
+        <v>1242.42</v>
       </c>
       <c r="D10" s="1">
-        <v>-311.119000</v>
+        <v>-311.11900000000003</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>381.018759</v>
+        <v>381.01875899999999</v>
       </c>
       <c r="G10" s="1">
         <v>0.105839</v>
       </c>
       <c r="H10" s="1">
-        <v>1267.700000</v>
+        <v>1267.7</v>
       </c>
       <c r="I10" s="1">
-        <v>-268.439000</v>
+        <v>-268.43900000000002</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>391.458553</v>
+        <v>391.45855299999999</v>
       </c>
       <c r="L10" s="1">
         <v>0.108738</v>
       </c>
       <c r="M10" s="1">
-        <v>1303.640000</v>
+        <v>1303.6400000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-204.854000</v>
+        <v>-204.85400000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>402.343787</v>
+        <v>402.34378700000002</v>
       </c>
       <c r="Q10" s="1">
         <v>0.111762</v>
       </c>
       <c r="R10" s="1">
-        <v>1315.290000</v>
+        <v>1315.29</v>
       </c>
       <c r="S10" s="1">
-        <v>-186.573000</v>
+        <v>-186.57300000000001</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>412.889216</v>
+        <v>412.88921599999998</v>
       </c>
       <c r="V10" s="1">
         <v>0.114691</v>
       </c>
       <c r="W10" s="1">
-        <v>1328.560000</v>
+        <v>1328.56</v>
       </c>
       <c r="X10" s="1">
-        <v>-172.736000</v>
+        <v>-172.73599999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>423.040321</v>
+        <v>423.04032100000001</v>
       </c>
       <c r="AA10" s="1">
         <v>0.117511</v>
       </c>
       <c r="AB10" s="1">
-        <v>1345.710000</v>
+        <v>1345.71</v>
       </c>
       <c r="AC10" s="1">
-        <v>-170.481000</v>
+        <v>-170.48099999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>432.924596</v>
+        <v>432.92459600000001</v>
       </c>
       <c r="AF10" s="1">
         <v>0.120257</v>
       </c>
       <c r="AG10" s="1">
-        <v>1358.800000</v>
+        <v>1358.8</v>
       </c>
       <c r="AH10" s="1">
-        <v>-180.038000</v>
+        <v>-180.03800000000001</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>443.105478</v>
+        <v>443.10547800000001</v>
       </c>
       <c r="AK10" s="1">
         <v>0.123085</v>
       </c>
       <c r="AL10" s="1">
-        <v>1379.450000</v>
+        <v>1379.45</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.985000</v>
+        <v>-209.98500000000001</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>453.738214</v>
+        <v>453.73821400000003</v>
       </c>
       <c r="AP10" s="1">
-        <v>0.126038</v>
+        <v>0.12603800000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1400.950000</v>
+        <v>1400.95</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.998000</v>
+        <v>-253.99799999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>464.848104</v>
+        <v>464.84810399999998</v>
       </c>
       <c r="AU10" s="1">
-        <v>0.129124</v>
+        <v>0.12912399999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>1425.240000</v>
+        <v>1425.24</v>
       </c>
       <c r="AW10" s="1">
-        <v>-314.428000</v>
+        <v>-314.428</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>475.939642</v>
+        <v>475.93964199999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>0.132205</v>
+        <v>0.13220499999999999</v>
       </c>
       <c r="BA10" s="1">
-        <v>1444.270000</v>
+        <v>1444.27</v>
       </c>
       <c r="BB10" s="1">
-        <v>-367.016000</v>
+        <v>-367.01600000000002</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>486.879899</v>
+        <v>486.87989900000002</v>
       </c>
       <c r="BE10" s="1">
         <v>0.135244</v>
       </c>
       <c r="BF10" s="1">
-        <v>1527.520000</v>
+        <v>1527.52</v>
       </c>
       <c r="BG10" s="1">
-        <v>-618.757000</v>
+        <v>-618.75699999999995</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>498.051292</v>
+        <v>498.05129199999999</v>
       </c>
       <c r="BJ10" s="1">
         <v>0.138348</v>
       </c>
       <c r="BK10" s="1">
-        <v>1678.190000</v>
+        <v>1678.19</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1073.520000</v>
+        <v>-1073.52</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>508.665184</v>
+        <v>508.66518400000001</v>
       </c>
       <c r="BO10" s="1">
         <v>0.141296</v>
       </c>
       <c r="BP10" s="1">
-        <v>1968.080000</v>
+        <v>1968.08</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1867.340000</v>
+        <v>-1867.34</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>519.208652</v>
+        <v>519.20865200000003</v>
       </c>
       <c r="BT10" s="1">
-        <v>0.144225</v>
+        <v>0.14422499999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>2352.890000</v>
+        <v>2352.89</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2791.940000</v>
+        <v>-2791.94</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>530.037298</v>
+        <v>530.03729799999996</v>
       </c>
       <c r="BY10" s="1">
         <v>0.147233</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2839.030000</v>
+        <v>2839.03</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3801.290000</v>
+        <v>-3801.29</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>542.065283</v>
+        <v>542.06528300000002</v>
       </c>
       <c r="CD10" s="1">
-        <v>0.150574</v>
+        <v>0.15057400000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>4266.680000</v>
+        <v>4266.68</v>
       </c>
       <c r="CF10" s="1">
-        <v>-6252.240000</v>
+        <v>-6252.24</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>370.957908</v>
+        <v>370.95790799999997</v>
       </c>
       <c r="B11" s="1">
         <v>0.103044</v>
       </c>
       <c r="C11" s="1">
-        <v>1242.430000</v>
+        <v>1242.43</v>
       </c>
       <c r="D11" s="1">
-        <v>-311.325000</v>
+        <v>-311.32499999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>381.708706</v>
+        <v>381.70870600000001</v>
       </c>
       <c r="G11" s="1">
-        <v>0.106030</v>
+        <v>0.10603</v>
       </c>
       <c r="H11" s="1">
-        <v>1268.030000</v>
+        <v>1268.03</v>
       </c>
       <c r="I11" s="1">
-        <v>-268.508000</v>
+        <v>-268.50799999999998</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>392.151992</v>
+        <v>392.15199200000001</v>
       </c>
       <c r="L11" s="1">
         <v>0.108931</v>
       </c>
       <c r="M11" s="1">
-        <v>1303.750000</v>
+        <v>1303.75</v>
       </c>
       <c r="N11" s="1">
-        <v>-205.383000</v>
+        <v>-205.38300000000001</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>402.691487</v>
@@ -2839,300 +3255,300 @@
         <v>0.111859</v>
       </c>
       <c r="R11" s="1">
-        <v>1315.330000</v>
+        <v>1315.33</v>
       </c>
       <c r="S11" s="1">
-        <v>-186.486000</v>
+        <v>-186.48599999999999</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>413.229949</v>
+        <v>413.22994899999998</v>
       </c>
       <c r="V11" s="1">
         <v>0.114786</v>
       </c>
       <c r="W11" s="1">
-        <v>1328.580000</v>
+        <v>1328.58</v>
       </c>
       <c r="X11" s="1">
-        <v>-172.867000</v>
+        <v>-172.86699999999999</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>423.393472</v>
+        <v>423.39347199999997</v>
       </c>
       <c r="AA11" s="1">
-        <v>0.117609</v>
+        <v>0.11760900000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>1345.710000</v>
+        <v>1345.71</v>
       </c>
       <c r="AC11" s="1">
-        <v>-170.582000</v>
+        <v>-170.58199999999999</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>433.578817</v>
+        <v>433.57881700000002</v>
       </c>
       <c r="AF11" s="1">
         <v>0.120439</v>
       </c>
       <c r="AG11" s="1">
-        <v>1358.810000</v>
+        <v>1358.81</v>
       </c>
       <c r="AH11" s="1">
-        <v>-180.007000</v>
+        <v>-180.00700000000001</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>443.778052</v>
       </c>
       <c r="AK11" s="1">
-        <v>0.123272</v>
+        <v>0.12327200000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1379.450000</v>
+        <v>1379.45</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.955000</v>
+        <v>-209.95500000000001</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>454.176182</v>
+        <v>454.17618199999998</v>
       </c>
       <c r="AP11" s="1">
-        <v>0.126160</v>
+        <v>0.12615999999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1400.980000</v>
+        <v>1400.98</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.994000</v>
+        <v>-253.994</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>465.210184</v>
+        <v>465.21018400000003</v>
       </c>
       <c r="AU11" s="1">
-        <v>0.129225</v>
+        <v>0.12922500000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1425.200000</v>
+        <v>1425.2</v>
       </c>
       <c r="AW11" s="1">
-        <v>-314.433000</v>
+        <v>-314.43299999999999</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
         <v>476.298249</v>
       </c>
       <c r="AZ11" s="1">
-        <v>0.132305</v>
+        <v>0.13230500000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1444.240000</v>
+        <v>1444.24</v>
       </c>
       <c r="BB11" s="1">
-        <v>-366.987000</v>
+        <v>-366.98700000000002</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
         <v>487.241018</v>
       </c>
       <c r="BE11" s="1">
-        <v>0.135345</v>
+        <v>0.13534499999999999</v>
       </c>
       <c r="BF11" s="1">
-        <v>1527.550000</v>
+        <v>1527.55</v>
       </c>
       <c r="BG11" s="1">
-        <v>-618.746000</v>
+        <v>-618.74599999999998</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
         <v>498.457516</v>
       </c>
       <c r="BJ11" s="1">
-        <v>0.138460</v>
+        <v>0.13846</v>
       </c>
       <c r="BK11" s="1">
-        <v>1678.180000</v>
+        <v>1678.18</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1073.470000</v>
+        <v>-1073.47</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>509.088308</v>
+        <v>509.08830799999998</v>
       </c>
       <c r="BO11" s="1">
-        <v>0.141413</v>
+        <v>0.14141300000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1968.040000</v>
+        <v>1968.04</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1867.280000</v>
+        <v>-1867.28</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>519.624288</v>
+        <v>519.62428799999998</v>
       </c>
       <c r="BT11" s="1">
-        <v>0.144340</v>
+        <v>0.14434</v>
       </c>
       <c r="BU11" s="1">
-        <v>2351.770000</v>
+        <v>2351.77</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2791.550000</v>
+        <v>-2791.55</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>530.484689</v>
       </c>
       <c r="BY11" s="1">
-        <v>0.147357</v>
+        <v>0.14735699999999999</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2838.390000</v>
+        <v>2838.39</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3800.610000</v>
+        <v>-3800.61</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>542.602984</v>
+        <v>542.60298399999999</v>
       </c>
       <c r="CD11" s="1">
         <v>0.150723</v>
       </c>
       <c r="CE11" s="1">
-        <v>4282.580000</v>
+        <v>4282.58</v>
       </c>
       <c r="CF11" s="1">
-        <v>-6270.980000</v>
+        <v>-6270.98</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>371.640403</v>
+        <v>371.64040299999999</v>
       </c>
       <c r="B12" s="1">
-        <v>0.103233</v>
+        <v>0.10323300000000001</v>
       </c>
       <c r="C12" s="1">
-        <v>1242.000000</v>
+        <v>1242</v>
       </c>
       <c r="D12" s="1">
-        <v>-310.958000</v>
+        <v>-310.95800000000003</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>382.051926</v>
+        <v>382.05192599999998</v>
       </c>
       <c r="G12" s="1">
         <v>0.106126</v>
       </c>
       <c r="H12" s="1">
-        <v>1267.700000</v>
+        <v>1267.7</v>
       </c>
       <c r="I12" s="1">
-        <v>-268.217000</v>
+        <v>-268.21699999999998</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>392.500152</v>
+        <v>392.50015200000001</v>
       </c>
       <c r="L12" s="1">
         <v>0.109028</v>
       </c>
       <c r="M12" s="1">
-        <v>1303.370000</v>
+        <v>1303.3699999999999</v>
       </c>
       <c r="N12" s="1">
-        <v>-205.064000</v>
+        <v>-205.06399999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>403.039657</v>
+        <v>403.03965699999998</v>
       </c>
       <c r="Q12" s="1">
         <v>0.111955</v>
       </c>
       <c r="R12" s="1">
-        <v>1315.330000</v>
+        <v>1315.33</v>
       </c>
       <c r="S12" s="1">
-        <v>-186.506000</v>
+        <v>-186.506</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>413.896108</v>
+        <v>413.89610800000003</v>
       </c>
       <c r="V12" s="1">
         <v>0.114971</v>
       </c>
       <c r="W12" s="1">
-        <v>1328.510000</v>
+        <v>1328.51</v>
       </c>
       <c r="X12" s="1">
-        <v>-172.556000</v>
+        <v>-172.55600000000001</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>424.048724</v>
+        <v>424.04872399999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>0.117791</v>
+        <v>0.11779100000000001</v>
       </c>
       <c r="AB12" s="1">
-        <v>1345.880000</v>
+        <v>1345.88</v>
       </c>
       <c r="AC12" s="1">
-        <v>-170.248000</v>
+        <v>-170.24799999999999</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
         <v>433.959249</v>
@@ -3141,437 +3557,437 @@
         <v>0.120544</v>
       </c>
       <c r="AG12" s="1">
-        <v>1358.800000</v>
+        <v>1358.8</v>
       </c>
       <c r="AH12" s="1">
-        <v>-180.064000</v>
+        <v>-180.06399999999999</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>444.150549</v>
+        <v>444.15054900000001</v>
       </c>
       <c r="AK12" s="1">
         <v>0.123375</v>
       </c>
       <c r="AL12" s="1">
-        <v>1379.440000</v>
+        <v>1379.44</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.977000</v>
+        <v>-209.977</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>454.538758</v>
+        <v>454.53875799999997</v>
       </c>
       <c r="AP12" s="1">
-        <v>0.126261</v>
+        <v>0.12626100000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1401.000000</v>
+        <v>1401</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.997000</v>
+        <v>-253.99700000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>465.578248</v>
+        <v>465.57824799999997</v>
       </c>
       <c r="AU12" s="1">
         <v>0.129327</v>
       </c>
       <c r="AV12" s="1">
-        <v>1425.240000</v>
+        <v>1425.24</v>
       </c>
       <c r="AW12" s="1">
-        <v>-314.445000</v>
+        <v>-314.44499999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>476.657850</v>
+        <v>476.65785</v>
       </c>
       <c r="AZ12" s="1">
-        <v>0.132405</v>
+        <v>0.13240499999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1444.210000</v>
+        <v>1444.21</v>
       </c>
       <c r="BB12" s="1">
-        <v>-366.987000</v>
+        <v>-366.98700000000002</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>487.650683</v>
+        <v>487.65068300000001</v>
       </c>
       <c r="BE12" s="1">
         <v>0.135459</v>
       </c>
       <c r="BF12" s="1">
-        <v>1527.540000</v>
+        <v>1527.54</v>
       </c>
       <c r="BG12" s="1">
-        <v>-618.725000</v>
+        <v>-618.72500000000002</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>498.805211</v>
+        <v>498.80521099999999</v>
       </c>
       <c r="BJ12" s="1">
-        <v>0.138557</v>
+        <v>0.13855700000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1678.130000</v>
+        <v>1678.13</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1073.350000</v>
+        <v>-1073.3499999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>509.483619</v>
+        <v>509.48361899999998</v>
       </c>
       <c r="BO12" s="1">
-        <v>0.141523</v>
+        <v>0.14152300000000001</v>
       </c>
       <c r="BP12" s="1">
-        <v>1968.070000</v>
+        <v>1968.07</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1867.540000</v>
+        <v>-1867.54</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>520.052831</v>
+        <v>520.05283099999997</v>
       </c>
       <c r="BT12" s="1">
         <v>0.144459</v>
       </c>
       <c r="BU12" s="1">
-        <v>2351.290000</v>
+        <v>2351.29</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2790.610000</v>
+        <v>-2790.61</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>530.902321</v>
+        <v>530.90232100000003</v>
       </c>
       <c r="BY12" s="1">
-        <v>0.147473</v>
+        <v>0.14747299999999999</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2837.810000</v>
+        <v>2837.81</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3801.080000</v>
+        <v>-3801.08</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>543.480370</v>
+        <v>543.48036999999999</v>
       </c>
       <c r="CD12" s="1">
-        <v>0.150967</v>
+        <v>0.15096699999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>4263.250000</v>
+        <v>4263.25</v>
       </c>
       <c r="CF12" s="1">
-        <v>-6259.420000</v>
+        <v>-6259.42</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>371.979710</v>
+        <v>371.97971000000001</v>
       </c>
       <c r="B13" s="1">
         <v>0.103328</v>
       </c>
       <c r="C13" s="1">
-        <v>1242.480000</v>
+        <v>1242.48</v>
       </c>
       <c r="D13" s="1">
-        <v>-311.234000</v>
+        <v>-311.23399999999998</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>382.396183</v>
+        <v>382.39618300000001</v>
       </c>
       <c r="G13" s="1">
         <v>0.106221</v>
       </c>
       <c r="H13" s="1">
-        <v>1267.550000</v>
+        <v>1267.55</v>
       </c>
       <c r="I13" s="1">
-        <v>-268.424000</v>
+        <v>-268.42399999999998</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>392.844873</v>
+        <v>392.84487300000001</v>
       </c>
       <c r="L13" s="1">
         <v>0.109124</v>
       </c>
       <c r="M13" s="1">
-        <v>1303.450000</v>
+        <v>1303.45</v>
       </c>
       <c r="N13" s="1">
-        <v>-205.099000</v>
+        <v>-205.09899999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>403.694361</v>
+        <v>403.69436100000001</v>
       </c>
       <c r="Q13" s="1">
         <v>0.112137</v>
       </c>
       <c r="R13" s="1">
-        <v>1315.370000</v>
+        <v>1315.37</v>
       </c>
       <c r="S13" s="1">
-        <v>-186.545000</v>
+        <v>-186.54499999999999</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>414.260140</v>
+        <v>414.26013999999998</v>
       </c>
       <c r="V13" s="1">
-        <v>0.115072</v>
+        <v>0.11507199999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>1328.480000</v>
+        <v>1328.48</v>
       </c>
       <c r="X13" s="1">
-        <v>-172.817000</v>
+        <v>-172.81700000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>424.439534</v>
+        <v>424.43953399999998</v>
       </c>
       <c r="AA13" s="1">
-        <v>0.117900</v>
+        <v>0.1179</v>
       </c>
       <c r="AB13" s="1">
-        <v>1345.930000</v>
+        <v>1345.93</v>
       </c>
       <c r="AC13" s="1">
-        <v>-170.368000</v>
+        <v>-170.36799999999999</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>434.306448</v>
+        <v>434.30644799999999</v>
       </c>
       <c r="AF13" s="1">
         <v>0.120641</v>
       </c>
       <c r="AG13" s="1">
-        <v>1358.830000</v>
+        <v>1358.83</v>
       </c>
       <c r="AH13" s="1">
-        <v>-179.983000</v>
+        <v>-179.983</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>444.501220</v>
+        <v>444.50121999999999</v>
       </c>
       <c r="AK13" s="1">
         <v>0.123473</v>
       </c>
       <c r="AL13" s="1">
-        <v>1379.460000</v>
+        <v>1379.46</v>
       </c>
       <c r="AM13" s="1">
-        <v>-209.970000</v>
+        <v>-209.97</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>454.898357</v>
+        <v>454.89835699999998</v>
       </c>
       <c r="AP13" s="1">
         <v>0.126361</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1400.980000</v>
+        <v>1400.98</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.981000</v>
+        <v>-253.98099999999999</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>465.990888</v>
+        <v>465.99088799999998</v>
       </c>
       <c r="AU13" s="1">
         <v>0.129442</v>
       </c>
       <c r="AV13" s="1">
-        <v>1425.230000</v>
+        <v>1425.23</v>
       </c>
       <c r="AW13" s="1">
-        <v>-314.396000</v>
+        <v>-314.39600000000002</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>477.083737</v>
+        <v>477.08373699999999</v>
       </c>
       <c r="AZ13" s="1">
         <v>0.132523</v>
       </c>
       <c r="BA13" s="1">
-        <v>1444.250000</v>
+        <v>1444.25</v>
       </c>
       <c r="BB13" s="1">
-        <v>-366.990000</v>
+        <v>-366.99</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>487.962667</v>
+        <v>487.96266700000001</v>
       </c>
       <c r="BE13" s="1">
         <v>0.135545</v>
       </c>
       <c r="BF13" s="1">
-        <v>1527.520000</v>
+        <v>1527.52</v>
       </c>
       <c r="BG13" s="1">
-        <v>-618.737000</v>
+        <v>-618.73699999999997</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
         <v>499.186667</v>
       </c>
       <c r="BJ13" s="1">
-        <v>0.138663</v>
+        <v>0.13866300000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1678.170000</v>
+        <v>1678.17</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1073.430000</v>
+        <v>-1073.43</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>509.904685</v>
+        <v>509.90468499999997</v>
       </c>
       <c r="BO13" s="1">
-        <v>0.141640</v>
+        <v>0.14163999999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1967.930000</v>
+        <v>1967.93</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1867.470000</v>
+        <v>-1867.47</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>520.464015</v>
+        <v>520.46401500000002</v>
       </c>
       <c r="BT13" s="1">
-        <v>0.144573</v>
+        <v>0.14457300000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>2351.060000</v>
+        <v>2351.06</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2789.620000</v>
+        <v>-2789.62</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>531.329087</v>
+        <v>531.32908699999996</v>
       </c>
       <c r="BY13" s="1">
         <v>0.147591</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2838.120000</v>
+        <v>2838.12</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3800.440000</v>
+        <v>-3800.44</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>543.682735</v>
+        <v>543.68273499999998</v>
       </c>
       <c r="CD13" s="1">
-        <v>0.151023</v>
+        <v>0.15102299999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>4263.900000</v>
+        <v>4263.8999999999996</v>
       </c>
       <c r="CF13" s="1">
-        <v>-6255.360000</v>
+        <v>-6255.36</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>372.323412</v>
+        <v>372.32341200000002</v>
       </c>
       <c r="B14" s="1">
         <v>0.103423</v>
       </c>
       <c r="C14" s="1">
-        <v>1242.370000</v>
+        <v>1242.3699999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-311.306000</v>
+        <v>-311.30599999999998</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>383.058965</v>
@@ -3580,241 +3996,241 @@
         <v>0.106405</v>
       </c>
       <c r="H14" s="1">
-        <v>1268.050000</v>
+        <v>1268.05</v>
       </c>
       <c r="I14" s="1">
-        <v>-268.427000</v>
+        <v>-268.42700000000002</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>393.494134</v>
+        <v>393.49413399999997</v>
       </c>
       <c r="L14" s="1">
         <v>0.109304</v>
       </c>
       <c r="M14" s="1">
-        <v>1303.420000</v>
+        <v>1303.42</v>
       </c>
       <c r="N14" s="1">
-        <v>-205.041000</v>
+        <v>-205.041</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>404.086730</v>
+        <v>404.08672999999999</v>
       </c>
       <c r="Q14" s="1">
         <v>0.112246</v>
       </c>
       <c r="R14" s="1">
-        <v>1315.320000</v>
+        <v>1315.32</v>
       </c>
       <c r="S14" s="1">
-        <v>-186.589000</v>
+        <v>-186.589</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>414.603373</v>
+        <v>414.60337299999998</v>
       </c>
       <c r="V14" s="1">
-        <v>0.115168</v>
+        <v>0.11516800000000001</v>
       </c>
       <c r="W14" s="1">
-        <v>1328.430000</v>
+        <v>1328.43</v>
       </c>
       <c r="X14" s="1">
-        <v>-172.791000</v>
+        <v>-172.791</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>424.788535</v>
+        <v>424.78853500000002</v>
       </c>
       <c r="AA14" s="1">
         <v>0.117997</v>
       </c>
       <c r="AB14" s="1">
-        <v>1346.010000</v>
+        <v>1346.01</v>
       </c>
       <c r="AC14" s="1">
-        <v>-170.449000</v>
+        <v>-170.44900000000001</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>434.650672</v>
+        <v>434.65067199999999</v>
       </c>
       <c r="AF14" s="1">
         <v>0.120736</v>
       </c>
       <c r="AG14" s="1">
-        <v>1358.780000</v>
+        <v>1358.78</v>
       </c>
       <c r="AH14" s="1">
-        <v>-180.002000</v>
+        <v>-180.00200000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>445.041395</v>
+        <v>445.04139500000002</v>
       </c>
       <c r="AK14" s="1">
         <v>0.123623</v>
       </c>
       <c r="AL14" s="1">
-        <v>1379.450000</v>
+        <v>1379.45</v>
       </c>
       <c r="AM14" s="1">
-        <v>-209.957000</v>
+        <v>-209.95699999999999</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>455.329414</v>
+        <v>455.32941399999999</v>
       </c>
       <c r="AP14" s="1">
-        <v>0.126480</v>
+        <v>0.12648000000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1400.940000</v>
+        <v>1400.94</v>
       </c>
       <c r="AR14" s="1">
-        <v>-254.003000</v>
+        <v>-254.00299999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>466.303862</v>
+        <v>466.30386199999998</v>
       </c>
       <c r="AU14" s="1">
-        <v>0.129529</v>
+        <v>0.12952900000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>1425.210000</v>
+        <v>1425.21</v>
       </c>
       <c r="AW14" s="1">
-        <v>-314.417000</v>
+        <v>-314.41699999999997</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>477.383765</v>
+        <v>477.38376499999998</v>
       </c>
       <c r="AZ14" s="1">
         <v>0.132607</v>
       </c>
       <c r="BA14" s="1">
-        <v>1444.220000</v>
+        <v>1444.22</v>
       </c>
       <c r="BB14" s="1">
-        <v>-366.992000</v>
+        <v>-366.99200000000002</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>488.327225</v>
       </c>
       <c r="BE14" s="1">
-        <v>0.135646</v>
+        <v>0.13564599999999999</v>
       </c>
       <c r="BF14" s="1">
-        <v>1527.520000</v>
+        <v>1527.52</v>
       </c>
       <c r="BG14" s="1">
-        <v>-618.742000</v>
+        <v>-618.74199999999996</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>499.575002</v>
+        <v>499.57500199999998</v>
       </c>
       <c r="BJ14" s="1">
-        <v>0.138771</v>
+        <v>0.13877100000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1678.140000</v>
+        <v>1678.14</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1073.380000</v>
+        <v>-1073.3800000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>510.495953</v>
+        <v>510.49595299999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>0.141804</v>
+        <v>0.14180400000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1968.010000</v>
+        <v>1968.01</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1867.130000</v>
+        <v>-1867.13</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>520.896701</v>
+        <v>520.89670100000001</v>
       </c>
       <c r="BT14" s="1">
-        <v>0.144694</v>
+        <v>0.14469399999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>2351.020000</v>
+        <v>2351.02</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2788.620000</v>
+        <v>-2788.62</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>531.776271</v>
+        <v>531.77627099999995</v>
       </c>
       <c r="BY14" s="1">
-        <v>0.147716</v>
+        <v>0.14771599999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2837.940000</v>
+        <v>2837.94</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3801.030000</v>
+        <v>-3801.03</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
         <v>544.198081</v>
       </c>
       <c r="CD14" s="1">
-        <v>0.151166</v>
+        <v>0.15116599999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>4271.660000</v>
+        <v>4271.66</v>
       </c>
       <c r="CF14" s="1">
-        <v>-6271.820000</v>
+        <v>-6271.82</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
         <v>372.963233</v>
       </c>
@@ -3822,345 +4238,345 @@
         <v>0.103601</v>
       </c>
       <c r="C15" s="1">
-        <v>1242.640000</v>
+        <v>1242.6400000000001</v>
       </c>
       <c r="D15" s="1">
-        <v>-311.162000</v>
+        <v>-311.16199999999998</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>383.432328</v>
+        <v>383.43232799999998</v>
       </c>
       <c r="G15" s="1">
-        <v>0.106509</v>
+        <v>0.10650900000000001</v>
       </c>
       <c r="H15" s="1">
-        <v>1268.060000</v>
+        <v>1268.06</v>
       </c>
       <c r="I15" s="1">
-        <v>-268.454000</v>
+        <v>-268.45400000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>393.880054</v>
+        <v>393.88005399999997</v>
       </c>
       <c r="L15" s="1">
-        <v>0.109411</v>
+        <v>0.10941099999999999</v>
       </c>
       <c r="M15" s="1">
-        <v>1303.510000</v>
+        <v>1303.51</v>
       </c>
       <c r="N15" s="1">
-        <v>-205.141000</v>
+        <v>-205.14099999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>404.431448</v>
+        <v>404.43144799999999</v>
       </c>
       <c r="Q15" s="1">
         <v>0.112342</v>
       </c>
       <c r="R15" s="1">
-        <v>1315.320000</v>
+        <v>1315.32</v>
       </c>
       <c r="S15" s="1">
-        <v>-186.575000</v>
+        <v>-186.57499999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>414.947594</v>
+        <v>414.94759399999998</v>
       </c>
       <c r="V15" s="1">
         <v>0.115263</v>
       </c>
       <c r="W15" s="1">
-        <v>1328.500000</v>
+        <v>1328.5</v>
       </c>
       <c r="X15" s="1">
-        <v>-172.762000</v>
+        <v>-172.762</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>425.133934</v>
+        <v>425.13393400000001</v>
       </c>
       <c r="AA15" s="1">
         <v>0.118093</v>
       </c>
       <c r="AB15" s="1">
-        <v>1345.800000</v>
+        <v>1345.8</v>
       </c>
       <c r="AC15" s="1">
-        <v>-170.290000</v>
+        <v>-170.29</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>435.070978</v>
+        <v>435.07097800000003</v>
       </c>
       <c r="AF15" s="1">
         <v>0.120853</v>
       </c>
       <c r="AG15" s="1">
-        <v>1358.820000</v>
+        <v>1358.82</v>
       </c>
       <c r="AH15" s="1">
-        <v>-180.031000</v>
+        <v>-180.03100000000001</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>445.197602</v>
+        <v>445.19760200000002</v>
       </c>
       <c r="AK15" s="1">
         <v>0.123666</v>
       </c>
       <c r="AL15" s="1">
-        <v>1379.440000</v>
+        <v>1379.44</v>
       </c>
       <c r="AM15" s="1">
-        <v>-209.961000</v>
+        <v>-209.96100000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>455.620070</v>
+        <v>455.62007</v>
       </c>
       <c r="AP15" s="1">
-        <v>0.126561</v>
+        <v>0.12656100000000001</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1400.990000</v>
+        <v>1400.99</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.954000</v>
+        <v>-253.95400000000001</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>466.667430</v>
+        <v>466.66743000000002</v>
       </c>
       <c r="AU15" s="1">
-        <v>0.129630</v>
+        <v>0.12963</v>
       </c>
       <c r="AV15" s="1">
-        <v>1425.210000</v>
+        <v>1425.21</v>
       </c>
       <c r="AW15" s="1">
-        <v>-314.393000</v>
+        <v>-314.39299999999997</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>477.730199</v>
+        <v>477.73019900000003</v>
       </c>
       <c r="AZ15" s="1">
-        <v>0.132703</v>
+        <v>0.13270299999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1444.260000</v>
+        <v>1444.26</v>
       </c>
       <c r="BB15" s="1">
-        <v>-366.949000</v>
+        <v>-366.94900000000001</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>488.683849</v>
+        <v>488.68384900000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>0.135746</v>
+        <v>0.13574600000000001</v>
       </c>
       <c r="BF15" s="1">
-        <v>1527.550000</v>
+        <v>1527.55</v>
       </c>
       <c r="BG15" s="1">
-        <v>-618.735000</v>
+        <v>-618.73500000000001</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>500.323993</v>
+        <v>500.32399299999997</v>
       </c>
       <c r="BJ15" s="1">
-        <v>0.138979</v>
+        <v>0.13897899999999999</v>
       </c>
       <c r="BK15" s="1">
-        <v>1678.160000</v>
+        <v>1678.16</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1073.460000</v>
+        <v>-1073.46</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>510.721632</v>
       </c>
       <c r="BO15" s="1">
-        <v>0.141867</v>
+        <v>0.14186699999999999</v>
       </c>
       <c r="BP15" s="1">
-        <v>1968.080000</v>
+        <v>1968.08</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1867.380000</v>
+        <v>-1867.38</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>521.327053</v>
+        <v>521.32705299999998</v>
       </c>
       <c r="BT15" s="1">
         <v>0.144813</v>
       </c>
       <c r="BU15" s="1">
-        <v>2351.710000</v>
+        <v>2351.71</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2787.520000</v>
+        <v>-2787.52</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>532.210271</v>
+        <v>532.21027100000003</v>
       </c>
       <c r="BY15" s="1">
         <v>0.147836</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2838.120000</v>
+        <v>2838.12</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3800.850000</v>
+        <v>-3800.85</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>545.022926</v>
+        <v>545.02292599999998</v>
       </c>
       <c r="CD15" s="1">
         <v>0.151395</v>
       </c>
       <c r="CE15" s="1">
-        <v>4264.860000</v>
+        <v>4264.8599999999997</v>
       </c>
       <c r="CF15" s="1">
-        <v>-6254.920000</v>
+        <v>-6254.92</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>373.349123</v>
+        <v>373.34912300000002</v>
       </c>
       <c r="B16" s="1">
-        <v>0.103708</v>
+        <v>0.10370799999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>1242.310000</v>
+        <v>1242.31</v>
       </c>
       <c r="D16" s="1">
-        <v>-311.165000</v>
+        <v>-311.16500000000002</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>383.776515</v>
+        <v>383.77651500000002</v>
       </c>
       <c r="G16" s="1">
-        <v>0.106605</v>
+        <v>0.10660500000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>1267.790000</v>
+        <v>1267.79</v>
       </c>
       <c r="I16" s="1">
-        <v>-268.202000</v>
+        <v>-268.202</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
         <v>394.227754</v>
       </c>
       <c r="L16" s="1">
-        <v>0.109508</v>
+        <v>0.10950799999999999</v>
       </c>
       <c r="M16" s="1">
-        <v>1303.170000</v>
+        <v>1303.17</v>
       </c>
       <c r="N16" s="1">
-        <v>-204.902000</v>
+        <v>-204.90199999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>404.783576</v>
+        <v>404.78357599999998</v>
       </c>
       <c r="Q16" s="1">
-        <v>0.112440</v>
+        <v>0.11244</v>
       </c>
       <c r="R16" s="1">
-        <v>1315.270000</v>
+        <v>1315.27</v>
       </c>
       <c r="S16" s="1">
-        <v>-186.515000</v>
+        <v>-186.51499999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>415.354841</v>
+        <v>415.35484100000002</v>
       </c>
       <c r="V16" s="1">
-        <v>0.115376</v>
+        <v>0.11537600000000001</v>
       </c>
       <c r="W16" s="1">
-        <v>1328.490000</v>
+        <v>1328.49</v>
       </c>
       <c r="X16" s="1">
-        <v>-172.739000</v>
+        <v>-172.739</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>425.558541</v>
+        <v>425.55854099999999</v>
       </c>
       <c r="AA16" s="1">
         <v>0.118211</v>
       </c>
       <c r="AB16" s="1">
-        <v>1345.810000</v>
+        <v>1345.81</v>
       </c>
       <c r="AC16" s="1">
-        <v>-170.187000</v>
+        <v>-170.18700000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
         <v>435.350031</v>
@@ -4169,13 +4585,13 @@
         <v>0.120931</v>
       </c>
       <c r="AG16" s="1">
-        <v>1358.840000</v>
+        <v>1358.84</v>
       </c>
       <c r="AH16" s="1">
-        <v>-180.003000</v>
+        <v>-180.00299999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
         <v>445.545795</v>
@@ -4184,482 +4600,482 @@
         <v>0.123763</v>
       </c>
       <c r="AL16" s="1">
-        <v>1379.420000</v>
+        <v>1379.42</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.978000</v>
+        <v>-209.97800000000001</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>455.979636</v>
+        <v>455.97963600000003</v>
       </c>
       <c r="AP16" s="1">
         <v>0.126661</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1400.980000</v>
+        <v>1400.98</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.988000</v>
+        <v>-253.988</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
         <v>467.034471</v>
       </c>
       <c r="AU16" s="1">
-        <v>0.129732</v>
+        <v>0.12973199999999999</v>
       </c>
       <c r="AV16" s="1">
-        <v>1425.210000</v>
+        <v>1425.21</v>
       </c>
       <c r="AW16" s="1">
-        <v>-314.408000</v>
+        <v>-314.40800000000002</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>478.446454</v>
+        <v>478.44645400000002</v>
       </c>
       <c r="AZ16" s="1">
-        <v>0.132902</v>
+        <v>0.13290199999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1444.230000</v>
+        <v>1444.23</v>
       </c>
       <c r="BB16" s="1">
-        <v>-366.983000</v>
+        <v>-366.983</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>489.407017</v>
       </c>
       <c r="BE16" s="1">
-        <v>0.135946</v>
+        <v>0.13594600000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1527.520000</v>
+        <v>1527.52</v>
       </c>
       <c r="BG16" s="1">
-        <v>-618.662000</v>
+        <v>-618.66200000000003</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>500.730185</v>
+        <v>500.73018500000001</v>
       </c>
       <c r="BJ16" s="1">
-        <v>0.139092</v>
+        <v>0.13909199999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1678.180000</v>
+        <v>1678.18</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1073.420000</v>
+        <v>-1073.42</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>511.118395</v>
+        <v>511.11839500000002</v>
       </c>
       <c r="BO16" s="1">
-        <v>0.141977</v>
+        <v>0.14197699999999999</v>
       </c>
       <c r="BP16" s="1">
-        <v>1967.960000</v>
+        <v>1967.96</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1867.420000</v>
+        <v>-1867.42</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>521.737741</v>
+        <v>521.73774100000003</v>
       </c>
       <c r="BT16" s="1">
         <v>0.144927</v>
       </c>
       <c r="BU16" s="1">
-        <v>2352.550000</v>
+        <v>2352.5500000000002</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2787.050000</v>
+        <v>-2787.05</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>532.968158</v>
+        <v>532.96815800000002</v>
       </c>
       <c r="BY16" s="1">
-        <v>0.148047</v>
+        <v>0.14804700000000001</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2838.070000</v>
+        <v>2838.07</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3800.290000</v>
+        <v>-3800.29</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>545.258031</v>
+        <v>545.25803099999996</v>
       </c>
       <c r="CD16" s="1">
-        <v>0.151461</v>
+        <v>0.15146100000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>4264.100000</v>
+        <v>4264.1000000000004</v>
       </c>
       <c r="CF16" s="1">
-        <v>-6252.960000</v>
+        <v>-6252.96</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>373.693029</v>
+        <v>373.69302900000002</v>
       </c>
       <c r="B17" s="1">
-        <v>0.103804</v>
+        <v>0.10380399999999999</v>
       </c>
       <c r="C17" s="1">
-        <v>1242.220000</v>
+        <v>1242.22</v>
       </c>
       <c r="D17" s="1">
-        <v>-310.880000</v>
+        <v>-310.88</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>384.120275</v>
+        <v>384.12027499999999</v>
       </c>
       <c r="G17" s="1">
-        <v>0.106700</v>
+        <v>0.1067</v>
       </c>
       <c r="H17" s="1">
-        <v>1267.970000</v>
+        <v>1267.97</v>
       </c>
       <c r="I17" s="1">
-        <v>-268.320000</v>
+        <v>-268.32</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>394.574917</v>
+        <v>394.57491700000003</v>
       </c>
       <c r="L17" s="1">
-        <v>0.109604</v>
+        <v>0.10960399999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1303.340000</v>
+        <v>1303.3399999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-205.034000</v>
+        <v>-205.03399999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>405.197756</v>
+        <v>405.19775600000003</v>
       </c>
       <c r="Q17" s="1">
         <v>0.112555</v>
       </c>
       <c r="R17" s="1">
-        <v>1315.380000</v>
+        <v>1315.38</v>
       </c>
       <c r="S17" s="1">
-        <v>-186.461000</v>
+        <v>-186.46100000000001</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>415.633097</v>
+        <v>415.63309700000002</v>
       </c>
       <c r="V17" s="1">
         <v>0.115454</v>
       </c>
       <c r="W17" s="1">
-        <v>1328.520000</v>
+        <v>1328.52</v>
       </c>
       <c r="X17" s="1">
-        <v>-172.763000</v>
+        <v>-172.76300000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>425.838471</v>
+        <v>425.83847100000003</v>
       </c>
       <c r="AA17" s="1">
         <v>0.118288</v>
       </c>
       <c r="AB17" s="1">
-        <v>1345.740000</v>
+        <v>1345.74</v>
       </c>
       <c r="AC17" s="1">
-        <v>-170.207000</v>
+        <v>-170.20699999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>435.692800</v>
+        <v>435.69279999999998</v>
       </c>
       <c r="AF17" s="1">
-        <v>0.121026</v>
+        <v>0.12102599999999999</v>
       </c>
       <c r="AG17" s="1">
-        <v>1358.860000</v>
+        <v>1358.86</v>
       </c>
       <c r="AH17" s="1">
-        <v>-180.051000</v>
+        <v>-180.05099999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>445.895505</v>
+        <v>445.89550500000001</v>
       </c>
       <c r="AK17" s="1">
-        <v>0.123860</v>
+        <v>0.12386</v>
       </c>
       <c r="AL17" s="1">
-        <v>1379.450000</v>
+        <v>1379.45</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.951000</v>
+        <v>-209.95099999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>456.342707</v>
+        <v>456.34270700000002</v>
       </c>
       <c r="AP17" s="1">
-        <v>0.126762</v>
+        <v>0.12676200000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1400.960000</v>
+        <v>1400.96</v>
       </c>
       <c r="AR17" s="1">
-        <v>-254.016000</v>
+        <v>-254.01599999999999</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>467.760612</v>
+        <v>467.76061199999998</v>
       </c>
       <c r="AU17" s="1">
-        <v>0.129934</v>
+        <v>0.12993399999999999</v>
       </c>
       <c r="AV17" s="1">
-        <v>1425.230000</v>
+        <v>1425.23</v>
       </c>
       <c r="AW17" s="1">
-        <v>-314.413000</v>
+        <v>-314.41300000000001</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>478.808005</v>
+        <v>478.80800499999998</v>
       </c>
       <c r="AZ17" s="1">
-        <v>0.133002</v>
+        <v>0.13300200000000001</v>
       </c>
       <c r="BA17" s="1">
-        <v>1444.260000</v>
+        <v>1444.26</v>
       </c>
       <c r="BB17" s="1">
-        <v>-366.987000</v>
+        <v>-366.98700000000002</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>489.799684</v>
+        <v>489.79968400000001</v>
       </c>
       <c r="BE17" s="1">
-        <v>0.136055</v>
+        <v>0.13605500000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1527.520000</v>
+        <v>1527.52</v>
       </c>
       <c r="BG17" s="1">
-        <v>-618.724000</v>
+        <v>-618.72400000000005</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>501.103704</v>
+        <v>501.10370399999999</v>
       </c>
       <c r="BJ17" s="1">
-        <v>0.139195</v>
+        <v>0.13919500000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1678.130000</v>
+        <v>1678.13</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1073.300000</v>
+        <v>-1073.3</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>511.849996</v>
+        <v>511.84999599999998</v>
       </c>
       <c r="BO17" s="1">
         <v>0.142181</v>
       </c>
       <c r="BP17" s="1">
-        <v>1967.900000</v>
+        <v>1967.9</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1867.180000</v>
+        <v>-1867.18</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>522.468844</v>
+        <v>522.46884399999999</v>
       </c>
       <c r="BT17" s="1">
-        <v>0.145130</v>
+        <v>0.14513000000000001</v>
       </c>
       <c r="BU17" s="1">
-        <v>2353.830000</v>
+        <v>2353.83</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2787.230000</v>
+        <v>-2787.23</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
         <v>533.102575</v>
       </c>
       <c r="BY17" s="1">
-        <v>0.148084</v>
+        <v>0.14808399999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2838.410000</v>
+        <v>2838.41</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3800.580000</v>
+        <v>-3800.58</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>545.776845</v>
+        <v>545.77684499999998</v>
       </c>
       <c r="CD17" s="1">
-        <v>0.151605</v>
+        <v>0.15160499999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>4269.490000</v>
+        <v>4269.49</v>
       </c>
       <c r="CF17" s="1">
-        <v>-6269.920000</v>
+        <v>-6269.92</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>374.034096</v>
+        <v>374.03409599999998</v>
       </c>
       <c r="B18" s="1">
         <v>0.103898</v>
       </c>
       <c r="C18" s="1">
-        <v>1242.470000</v>
+        <v>1242.47</v>
       </c>
       <c r="D18" s="1">
-        <v>-310.833000</v>
+        <v>-310.83300000000003</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>384.538898</v>
+        <v>384.53889800000002</v>
       </c>
       <c r="G18" s="1">
-        <v>0.106816</v>
+        <v>0.10681599999999999</v>
       </c>
       <c r="H18" s="1">
-        <v>1267.560000</v>
+        <v>1267.56</v>
       </c>
       <c r="I18" s="1">
-        <v>-268.054000</v>
+        <v>-268.05399999999997</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>394.995028</v>
+        <v>394.99502799999999</v>
       </c>
       <c r="L18" s="1">
         <v>0.109721</v>
       </c>
       <c r="M18" s="1">
-        <v>1303.450000</v>
+        <v>1303.45</v>
       </c>
       <c r="N18" s="1">
-        <v>-205.204000</v>
+        <v>-205.20400000000001</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>405.491367</v>
+        <v>405.49136700000003</v>
       </c>
       <c r="Q18" s="1">
         <v>0.112636</v>
       </c>
       <c r="R18" s="1">
-        <v>1315.400000</v>
+        <v>1315.4</v>
       </c>
       <c r="S18" s="1">
-        <v>-186.498000</v>
+        <v>-186.49799999999999</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>415.978313</v>
+        <v>415.97831300000001</v>
       </c>
       <c r="V18" s="1">
-        <v>0.115550</v>
+        <v>0.11555</v>
       </c>
       <c r="W18" s="1">
-        <v>1328.460000</v>
+        <v>1328.46</v>
       </c>
       <c r="X18" s="1">
-        <v>-172.756000</v>
+        <v>-172.756</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>426.186443</v>
@@ -4668,28 +5084,28 @@
         <v>0.118385</v>
       </c>
       <c r="AB18" s="1">
-        <v>1345.600000</v>
+        <v>1345.6</v>
       </c>
       <c r="AC18" s="1">
-        <v>-170.234000</v>
+        <v>-170.23400000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>436.036991</v>
       </c>
       <c r="AF18" s="1">
-        <v>0.121121</v>
+        <v>0.12112100000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>1358.820000</v>
+        <v>1358.82</v>
       </c>
       <c r="AH18" s="1">
-        <v>-180.060000</v>
+        <v>-180.06</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
         <v>446.594337</v>
@@ -4698,240 +5114,240 @@
         <v>0.124054</v>
       </c>
       <c r="AL18" s="1">
-        <v>1379.440000</v>
+        <v>1379.44</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.961000</v>
+        <v>-209.96100000000001</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
         <v>457.067858</v>
       </c>
       <c r="AP18" s="1">
-        <v>0.126963</v>
+        <v>0.12696299999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1400.950000</v>
+        <v>1400.95</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.969000</v>
+        <v>-253.96899999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>468.155429</v>
+        <v>468.15542900000003</v>
       </c>
       <c r="AU18" s="1">
-        <v>0.130043</v>
+        <v>0.13004299999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>1425.220000</v>
+        <v>1425.22</v>
       </c>
       <c r="AW18" s="1">
-        <v>-314.396000</v>
+        <v>-314.39600000000002</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>479.165622</v>
+        <v>479.16562199999998</v>
       </c>
       <c r="AZ18" s="1">
         <v>0.133102</v>
       </c>
       <c r="BA18" s="1">
-        <v>1444.280000</v>
+        <v>1444.28</v>
       </c>
       <c r="BB18" s="1">
-        <v>-366.989000</v>
+        <v>-366.98899999999998</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>490.161467</v>
+        <v>490.16146700000002</v>
       </c>
       <c r="BE18" s="1">
         <v>0.136156</v>
       </c>
       <c r="BF18" s="1">
-        <v>1527.520000</v>
+        <v>1527.52</v>
       </c>
       <c r="BG18" s="1">
-        <v>-618.717000</v>
+        <v>-618.71699999999998</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>501.787655</v>
+        <v>501.78765499999997</v>
       </c>
       <c r="BJ18" s="1">
-        <v>0.139385</v>
+        <v>0.13938500000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1678.230000</v>
+        <v>1678.23</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1073.340000</v>
+        <v>-1073.3399999999999</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>511.963588</v>
+        <v>511.96358800000002</v>
       </c>
       <c r="BO18" s="1">
-        <v>0.142212</v>
+        <v>0.14221200000000001</v>
       </c>
       <c r="BP18" s="1">
-        <v>1967.840000</v>
+        <v>1967.84</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1867.260000</v>
+        <v>-1867.26</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
         <v>522.595822</v>
       </c>
       <c r="BT18" s="1">
-        <v>0.145166</v>
+        <v>0.14516599999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>2354.710000</v>
+        <v>2354.71</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2786.920000</v>
+        <v>-2786.92</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>533.532111</v>
+        <v>533.53211099999999</v>
       </c>
       <c r="BY18" s="1">
         <v>0.148203</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2838.060000</v>
+        <v>2838.06</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3801.170000</v>
+        <v>-3801.17</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>546.296189</v>
+        <v>546.29618900000003</v>
       </c>
       <c r="CD18" s="1">
         <v>0.151749</v>
       </c>
       <c r="CE18" s="1">
-        <v>4285.460000</v>
+        <v>4285.46</v>
       </c>
       <c r="CF18" s="1">
-        <v>-6264.960000</v>
+        <v>-6264.96</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>374.459690</v>
+        <v>374.45969000000002</v>
       </c>
       <c r="B19" s="1">
         <v>0.104017</v>
       </c>
       <c r="C19" s="1">
-        <v>1242.550000</v>
+        <v>1242.55</v>
       </c>
       <c r="D19" s="1">
-        <v>-311.011000</v>
+        <v>-311.01100000000002</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>384.818610</v>
+        <v>384.81860999999998</v>
       </c>
       <c r="G19" s="1">
         <v>0.106894</v>
       </c>
       <c r="H19" s="1">
-        <v>1267.710000</v>
+        <v>1267.71</v>
       </c>
       <c r="I19" s="1">
-        <v>-268.346000</v>
+        <v>-268.346</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>395.283701</v>
+        <v>395.28370100000001</v>
       </c>
       <c r="L19" s="1">
         <v>0.109801</v>
       </c>
       <c r="M19" s="1">
-        <v>1303.480000</v>
+        <v>1303.48</v>
       </c>
       <c r="N19" s="1">
-        <v>-204.831000</v>
+        <v>-204.83099999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>405.840550</v>
+        <v>405.84055000000001</v>
       </c>
       <c r="Q19" s="1">
         <v>0.112733</v>
       </c>
       <c r="R19" s="1">
-        <v>1315.450000</v>
+        <v>1315.45</v>
       </c>
       <c r="S19" s="1">
-        <v>-186.520000</v>
+        <v>-186.52</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>416.323529</v>
+        <v>416.32352900000001</v>
       </c>
       <c r="V19" s="1">
         <v>0.115645</v>
       </c>
       <c r="W19" s="1">
-        <v>1328.530000</v>
+        <v>1328.53</v>
       </c>
       <c r="X19" s="1">
-        <v>-172.784000</v>
+        <v>-172.78399999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>426.535132</v>
+        <v>426.53513199999998</v>
       </c>
       <c r="AA19" s="1">
         <v>0.118482</v>
       </c>
       <c r="AB19" s="1">
-        <v>1345.870000</v>
+        <v>1345.87</v>
       </c>
       <c r="AC19" s="1">
-        <v>-170.385000</v>
+        <v>-170.38499999999999</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
         <v>436.724445</v>
@@ -4940,255 +5356,255 @@
         <v>0.121312</v>
       </c>
       <c r="AG19" s="1">
-        <v>1358.890000</v>
+        <v>1358.89</v>
       </c>
       <c r="AH19" s="1">
-        <v>-179.993000</v>
+        <v>-179.99299999999999</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>446.942559</v>
+        <v>446.94255900000002</v>
       </c>
       <c r="AK19" s="1">
         <v>0.124151</v>
       </c>
       <c r="AL19" s="1">
-        <v>1379.440000</v>
+        <v>1379.44</v>
       </c>
       <c r="AM19" s="1">
-        <v>-209.960000</v>
+        <v>-209.96</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
         <v>457.443826</v>
       </c>
       <c r="AP19" s="1">
-        <v>0.127068</v>
+        <v>0.12706799999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1400.940000</v>
+        <v>1400.94</v>
       </c>
       <c r="AR19" s="1">
-        <v>-254.008000</v>
+        <v>-254.00800000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>468.518195</v>
+        <v>468.51819499999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>0.130144</v>
+        <v>0.13014400000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1425.230000</v>
+        <v>1425.23</v>
       </c>
       <c r="AW19" s="1">
-        <v>-314.377000</v>
+        <v>-314.37700000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
         <v>479.832245</v>
       </c>
       <c r="AZ19" s="1">
-        <v>0.133287</v>
+        <v>0.13328699999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1444.200000</v>
+        <v>1444.2</v>
       </c>
       <c r="BB19" s="1">
-        <v>-366.996000</v>
+        <v>-366.99599999999998</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>490.822134</v>
+        <v>490.82213400000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>0.136339</v>
+        <v>0.13633899999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1527.540000</v>
+        <v>1527.54</v>
       </c>
       <c r="BG19" s="1">
-        <v>-618.679000</v>
+        <v>-618.67899999999997</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>501.895783</v>
+        <v>501.89578299999999</v>
       </c>
       <c r="BJ19" s="1">
-        <v>0.139415</v>
+        <v>0.13941500000000001</v>
       </c>
       <c r="BK19" s="1">
-        <v>1678.130000</v>
+        <v>1678.13</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1073.400000</v>
+        <v>-1073.4000000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>512.361866</v>
+        <v>512.36186599999996</v>
       </c>
       <c r="BO19" s="1">
-        <v>0.142323</v>
+        <v>0.14232300000000001</v>
       </c>
       <c r="BP19" s="1">
-        <v>1968.130000</v>
+        <v>1968.13</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1867.360000</v>
+        <v>-1867.36</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>523.005020</v>
+        <v>523.00501999999994</v>
       </c>
       <c r="BT19" s="1">
-        <v>0.145279</v>
+        <v>0.14527899999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>2355.450000</v>
+        <v>2355.4499999999998</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2787.700000</v>
+        <v>-2787.7</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>533.948253</v>
+        <v>533.94825300000002</v>
       </c>
       <c r="BY19" s="1">
-        <v>0.148319</v>
+        <v>0.14831900000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2837.980000</v>
+        <v>2837.98</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3800.000000</v>
+        <v>-3800</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>546.813980</v>
+        <v>546.81398000000002</v>
       </c>
       <c r="CD19" s="1">
         <v>0.151893</v>
       </c>
       <c r="CE19" s="1">
-        <v>4281.500000</v>
+        <v>4281.5</v>
       </c>
       <c r="CF19" s="1">
-        <v>-6250.520000</v>
+        <v>-6250.52</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>374.734447</v>
+        <v>374.73444699999999</v>
       </c>
       <c r="B20" s="1">
         <v>0.104093</v>
       </c>
       <c r="C20" s="1">
-        <v>1242.400000</v>
+        <v>1242.4000000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-311.092000</v>
+        <v>-311.09199999999998</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>385.162369</v>
+        <v>385.16236900000001</v>
       </c>
       <c r="G20" s="1">
-        <v>0.106990</v>
+        <v>0.10699</v>
       </c>
       <c r="H20" s="1">
-        <v>1267.780000</v>
+        <v>1267.78</v>
       </c>
       <c r="I20" s="1">
-        <v>-268.502000</v>
+        <v>-268.50200000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>395.628452</v>
+        <v>395.62845199999998</v>
       </c>
       <c r="L20" s="1">
-        <v>0.109897</v>
+        <v>0.10989699999999999</v>
       </c>
       <c r="M20" s="1">
-        <v>1303.630000</v>
+        <v>1303.6300000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-204.728000</v>
+        <v>-204.72800000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>406.192214</v>
+        <v>406.19221399999998</v>
       </c>
       <c r="Q20" s="1">
         <v>0.112831</v>
       </c>
       <c r="R20" s="1">
-        <v>1315.380000</v>
+        <v>1315.38</v>
       </c>
       <c r="S20" s="1">
-        <v>-186.560000</v>
+        <v>-186.56</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>417.010952</v>
+        <v>417.01095199999997</v>
       </c>
       <c r="V20" s="1">
-        <v>0.115836</v>
+        <v>0.11583599999999999</v>
       </c>
       <c r="W20" s="1">
-        <v>1328.630000</v>
+        <v>1328.63</v>
       </c>
       <c r="X20" s="1">
-        <v>-172.703000</v>
+        <v>-172.703</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>427.234987</v>
+        <v>427.23498699999999</v>
       </c>
       <c r="AA20" s="1">
         <v>0.118676</v>
       </c>
       <c r="AB20" s="1">
-        <v>1345.930000</v>
+        <v>1345.93</v>
       </c>
       <c r="AC20" s="1">
-        <v>-170.350000</v>
+        <v>-170.35</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
         <v>437.067678</v>
@@ -5197,88 +5613,88 @@
         <v>0.121408</v>
       </c>
       <c r="AG20" s="1">
-        <v>1358.780000</v>
+        <v>1358.78</v>
       </c>
       <c r="AH20" s="1">
-        <v>-180.039000</v>
+        <v>-180.03899999999999</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>447.291215</v>
+        <v>447.29121500000002</v>
       </c>
       <c r="AK20" s="1">
         <v>0.124248</v>
       </c>
       <c r="AL20" s="1">
-        <v>1379.410000</v>
+        <v>1379.41</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.946000</v>
+        <v>-209.946</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>457.807394</v>
+        <v>457.80739399999999</v>
       </c>
       <c r="AP20" s="1">
         <v>0.127169</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1400.960000</v>
+        <v>1400.96</v>
       </c>
       <c r="AR20" s="1">
-        <v>-254.016000</v>
+        <v>-254.01599999999999</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>469.185156</v>
+        <v>469.18515600000001</v>
       </c>
       <c r="AU20" s="1">
         <v>0.130329</v>
       </c>
       <c r="AV20" s="1">
-        <v>1425.220000</v>
+        <v>1425.22</v>
       </c>
       <c r="AW20" s="1">
-        <v>-314.397000</v>
+        <v>-314.39699999999999</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>480.270708</v>
+        <v>480.27070800000001</v>
       </c>
       <c r="AZ20" s="1">
         <v>0.133409</v>
       </c>
       <c r="BA20" s="1">
-        <v>1444.220000</v>
+        <v>1444.22</v>
       </c>
       <c r="BB20" s="1">
-        <v>-366.992000</v>
+        <v>-366.99200000000002</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>491.244726</v>
+        <v>491.24472600000001</v>
       </c>
       <c r="BE20" s="1">
-        <v>0.136457</v>
+        <v>0.13645699999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1527.540000</v>
+        <v>1527.54</v>
       </c>
       <c r="BG20" s="1">
-        <v>-618.679000</v>
+        <v>-618.67899999999997</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>502.255424</v>
@@ -5287,165 +5703,165 @@
         <v>0.139515</v>
       </c>
       <c r="BK20" s="1">
-        <v>1678.130000</v>
+        <v>1678.13</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1073.340000</v>
+        <v>-1073.3399999999999</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>512.784458</v>
+        <v>512.78445799999997</v>
       </c>
       <c r="BO20" s="1">
-        <v>0.142440</v>
+        <v>0.14244000000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1967.940000</v>
+        <v>1967.94</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1867.150000</v>
+        <v>-1867.15</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>523.437531</v>
+        <v>523.43753100000004</v>
       </c>
       <c r="BT20" s="1">
         <v>0.145399</v>
       </c>
       <c r="BU20" s="1">
-        <v>2355.660000</v>
+        <v>2355.66</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2788.660000</v>
+        <v>-2788.66</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>534.403084</v>
+        <v>534.40308400000004</v>
       </c>
       <c r="BY20" s="1">
-        <v>0.148445</v>
+        <v>0.14844499999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2838.230000</v>
+        <v>2838.23</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3799.700000</v>
+        <v>-3799.7</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>547.329850</v>
+        <v>547.32984999999996</v>
       </c>
       <c r="CD20" s="1">
         <v>0.152036</v>
       </c>
       <c r="CE20" s="1">
-        <v>4285.240000</v>
+        <v>4285.24</v>
       </c>
       <c r="CF20" s="1">
-        <v>-6254.670000</v>
+        <v>-6254.67</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>375.073710</v>
+        <v>375.07371000000001</v>
       </c>
       <c r="B21" s="1">
         <v>0.104187</v>
       </c>
       <c r="C21" s="1">
-        <v>1242.240000</v>
+        <v>1242.24</v>
       </c>
       <c r="D21" s="1">
-        <v>-310.726000</v>
+        <v>-310.726</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>385.505108</v>
+        <v>385.50510800000001</v>
       </c>
       <c r="G21" s="1">
         <v>0.107085</v>
       </c>
       <c r="H21" s="1">
-        <v>1268.370000</v>
+        <v>1268.3699999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-268.340000</v>
+        <v>-268.33999999999997</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>396.318388</v>
+        <v>396.31838800000003</v>
       </c>
       <c r="L21" s="1">
-        <v>0.110088</v>
+        <v>0.11008800000000001</v>
       </c>
       <c r="M21" s="1">
-        <v>1303.280000</v>
+        <v>1303.28</v>
       </c>
       <c r="N21" s="1">
-        <v>-205.053000</v>
+        <v>-205.053</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>406.885162</v>
+        <v>406.88516199999998</v>
       </c>
       <c r="Q21" s="1">
         <v>0.113024</v>
       </c>
       <c r="R21" s="1">
-        <v>1315.310000</v>
+        <v>1315.31</v>
       </c>
       <c r="S21" s="1">
-        <v>-186.502000</v>
+        <v>-186.50200000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>417.354184</v>
+        <v>417.35418399999998</v>
       </c>
       <c r="V21" s="1">
-        <v>0.115932</v>
+        <v>0.11593199999999999</v>
       </c>
       <c r="W21" s="1">
-        <v>1328.490000</v>
+        <v>1328.49</v>
       </c>
       <c r="X21" s="1">
-        <v>-172.756000</v>
+        <v>-172.756</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>427.581689</v>
+        <v>427.58168899999998</v>
       </c>
       <c r="AA21" s="1">
         <v>0.118773</v>
       </c>
       <c r="AB21" s="1">
-        <v>1345.910000</v>
+        <v>1345.91</v>
       </c>
       <c r="AC21" s="1">
-        <v>-170.234000</v>
+        <v>-170.23400000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
         <v>437.409918</v>
@@ -5454,437 +5870,437 @@
         <v>0.121503</v>
       </c>
       <c r="AG21" s="1">
-        <v>1358.810000</v>
+        <v>1358.81</v>
       </c>
       <c r="AH21" s="1">
-        <v>-179.994000</v>
+        <v>-179.994</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>447.930062</v>
+        <v>447.93006200000002</v>
       </c>
       <c r="AK21" s="1">
-        <v>0.124425</v>
+        <v>0.12442499999999999</v>
       </c>
       <c r="AL21" s="1">
-        <v>1379.410000</v>
+        <v>1379.41</v>
       </c>
       <c r="AM21" s="1">
-        <v>-209.928000</v>
+        <v>-209.928</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>458.470546</v>
+        <v>458.47054600000001</v>
       </c>
       <c r="AP21" s="1">
-        <v>0.127353</v>
+        <v>0.12735299999999999</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1400.980000</v>
+        <v>1400.98</v>
       </c>
       <c r="AR21" s="1">
-        <v>-254.009000</v>
+        <v>-254.00899999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>469.646402</v>
+        <v>469.64640200000002</v>
       </c>
       <c r="AU21" s="1">
-        <v>0.130457</v>
+        <v>0.13045699999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1425.250000</v>
+        <v>1425.25</v>
       </c>
       <c r="AW21" s="1">
-        <v>-314.390000</v>
+        <v>-314.39</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>480.629812</v>
+        <v>480.62981200000002</v>
       </c>
       <c r="AZ21" s="1">
-        <v>0.133508</v>
+        <v>0.13350799999999999</v>
       </c>
       <c r="BA21" s="1">
-        <v>1444.220000</v>
+        <v>1444.22</v>
       </c>
       <c r="BB21" s="1">
-        <v>-366.963000</v>
+        <v>-366.96300000000002</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>491.633594</v>
+        <v>491.63359400000002</v>
       </c>
       <c r="BE21" s="1">
-        <v>0.136565</v>
+        <v>0.13656499999999999</v>
       </c>
       <c r="BF21" s="1">
-        <v>1527.530000</v>
+        <v>1527.53</v>
       </c>
       <c r="BG21" s="1">
-        <v>-618.724000</v>
+        <v>-618.72400000000005</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
         <v>502.629863</v>
       </c>
       <c r="BJ21" s="1">
-        <v>0.139619</v>
+        <v>0.13961899999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1678.160000</v>
+        <v>1678.16</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1073.350000</v>
+        <v>-1073.3499999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>513.212041</v>
       </c>
       <c r="BO21" s="1">
-        <v>0.142559</v>
+        <v>0.14255899999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1967.930000</v>
+        <v>1967.93</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1867.210000</v>
+        <v>-1867.21</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>523.865082</v>
+        <v>523.86508200000003</v>
       </c>
       <c r="BT21" s="1">
-        <v>0.145518</v>
+        <v>0.14551800000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>2355.540000</v>
+        <v>2355.54</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2789.820000</v>
+        <v>-2789.82</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>534.851964</v>
+        <v>534.85196399999995</v>
       </c>
       <c r="BY21" s="1">
-        <v>0.148570</v>
+        <v>0.14857000000000001</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2837.500000</v>
+        <v>2837.5</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3799.720000</v>
+        <v>-3799.72</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>547.884346</v>
+        <v>547.88434600000005</v>
       </c>
       <c r="CD21" s="1">
-        <v>0.152190</v>
+        <v>0.15218999999999999</v>
       </c>
       <c r="CE21" s="1">
-        <v>4283.270000</v>
+        <v>4283.2700000000004</v>
       </c>
       <c r="CF21" s="1">
-        <v>-6267.320000</v>
+        <v>-6267.32</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>375.416942</v>
+        <v>375.41694200000001</v>
       </c>
       <c r="B22" s="1">
         <v>0.104282</v>
       </c>
       <c r="C22" s="1">
-        <v>1242.390000</v>
+        <v>1242.3900000000001</v>
       </c>
       <c r="D22" s="1">
-        <v>-311.044000</v>
+        <v>-311.04399999999998</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>386.195008</v>
+        <v>386.19500799999997</v>
       </c>
       <c r="G22" s="1">
         <v>0.107276</v>
       </c>
       <c r="H22" s="1">
-        <v>1268.320000</v>
+        <v>1268.32</v>
       </c>
       <c r="I22" s="1">
-        <v>-268.054000</v>
+        <v>-268.05399999999997</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>396.667074</v>
+        <v>396.66707400000001</v>
       </c>
       <c r="L22" s="1">
-        <v>0.110185</v>
+        <v>0.11018500000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1303.480000</v>
+        <v>1303.48</v>
       </c>
       <c r="N22" s="1">
-        <v>-204.721000</v>
+        <v>-204.721</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>407.235828</v>
+        <v>407.23582800000003</v>
       </c>
       <c r="Q22" s="1">
         <v>0.113121</v>
       </c>
       <c r="R22" s="1">
-        <v>1315.300000</v>
+        <v>1315.3</v>
       </c>
       <c r="S22" s="1">
-        <v>-186.461000</v>
+        <v>-186.46100000000001</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>417.696455</v>
+        <v>417.69645500000001</v>
       </c>
       <c r="V22" s="1">
-        <v>0.116027</v>
+        <v>0.11602700000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>1328.460000</v>
+        <v>1328.46</v>
       </c>
       <c r="X22" s="1">
-        <v>-172.686000</v>
+        <v>-172.68600000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>427.929422</v>
+        <v>427.92942199999999</v>
       </c>
       <c r="AA22" s="1">
         <v>0.118869</v>
       </c>
       <c r="AB22" s="1">
-        <v>1345.710000</v>
+        <v>1345.71</v>
       </c>
       <c r="AC22" s="1">
-        <v>-170.494000</v>
+        <v>-170.494</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>438.063675</v>
+        <v>438.06367499999999</v>
       </c>
       <c r="AF22" s="1">
         <v>0.121684</v>
       </c>
       <c r="AG22" s="1">
-        <v>1358.810000</v>
+        <v>1358.81</v>
       </c>
       <c r="AH22" s="1">
-        <v>-180.003000</v>
+        <v>-180.00299999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>448.335792</v>
+        <v>448.33579200000003</v>
       </c>
       <c r="AK22" s="1">
         <v>0.124538</v>
       </c>
       <c r="AL22" s="1">
-        <v>1379.440000</v>
+        <v>1379.44</v>
       </c>
       <c r="AM22" s="1">
-        <v>-209.927000</v>
+        <v>-209.92699999999999</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>458.885462</v>
+        <v>458.88546200000002</v>
       </c>
       <c r="AP22" s="1">
         <v>0.127468</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1400.990000</v>
+        <v>1400.99</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.995000</v>
+        <v>-253.995</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>470.000546</v>
+        <v>470.00054599999999</v>
       </c>
       <c r="AU22" s="1">
-        <v>0.130556</v>
+        <v>0.13055600000000001</v>
       </c>
       <c r="AV22" s="1">
-        <v>1425.250000</v>
+        <v>1425.25</v>
       </c>
       <c r="AW22" s="1">
-        <v>-314.411000</v>
+        <v>-314.411</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>480.988455</v>
+        <v>480.98845499999999</v>
       </c>
       <c r="AZ22" s="1">
         <v>0.133608</v>
       </c>
       <c r="BA22" s="1">
-        <v>1444.220000</v>
+        <v>1444.22</v>
       </c>
       <c r="BB22" s="1">
-        <v>-366.939000</v>
+        <v>-366.93900000000002</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>491.992660</v>
+        <v>491.99266</v>
       </c>
       <c r="BE22" s="1">
-        <v>0.136665</v>
+        <v>0.13666500000000001</v>
       </c>
       <c r="BF22" s="1">
-        <v>1527.550000</v>
+        <v>1527.55</v>
       </c>
       <c r="BG22" s="1">
-        <v>-618.710000</v>
+        <v>-618.71</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>503.053942</v>
+        <v>503.05394200000001</v>
       </c>
       <c r="BJ22" s="1">
         <v>0.139737</v>
       </c>
       <c r="BK22" s="1">
-        <v>1678.210000</v>
+        <v>1678.21</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1073.280000</v>
+        <v>-1073.28</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>513.604344</v>
+        <v>513.60434399999997</v>
       </c>
       <c r="BO22" s="1">
-        <v>0.142668</v>
+        <v>0.14266799999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1967.880000</v>
+        <v>1967.88</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1867.200000</v>
+        <v>-1867.2</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>524.277786</v>
+        <v>524.27778599999999</v>
       </c>
       <c r="BT22" s="1">
-        <v>0.145633</v>
+        <v>0.14563300000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>2355.250000</v>
+        <v>2355.25</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2790.430000</v>
+        <v>-2790.43</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
         <v>535.261661</v>
       </c>
       <c r="BY22" s="1">
-        <v>0.148684</v>
+        <v>0.14868400000000001</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2837.490000</v>
+        <v>2837.49</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3800.450000</v>
+        <v>-3800.45</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>548.415066</v>
+        <v>548.41506600000002</v>
       </c>
       <c r="CD22" s="1">
         <v>0.152338</v>
       </c>
       <c r="CE22" s="1">
-        <v>4283.970000</v>
+        <v>4283.97</v>
       </c>
       <c r="CF22" s="1">
-        <v>-6251.700000</v>
+        <v>-6251.7</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>376.101423</v>
+        <v>376.10142300000001</v>
       </c>
       <c r="B23" s="1">
         <v>0.104473</v>
       </c>
       <c r="C23" s="1">
-        <v>1242.260000</v>
+        <v>1242.26</v>
       </c>
       <c r="D23" s="1">
-        <v>-311.212000</v>
+        <v>-311.21199999999999</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
         <v>386.540751</v>
@@ -5893,345 +6309,345 @@
         <v>0.107372</v>
       </c>
       <c r="H23" s="1">
-        <v>1267.940000</v>
+        <v>1267.94</v>
       </c>
       <c r="I23" s="1">
-        <v>-268.432000</v>
+        <v>-268.43200000000002</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>397.014738</v>
+        <v>397.01473800000002</v>
       </c>
       <c r="L23" s="1">
-        <v>0.110282</v>
+        <v>0.11028200000000001</v>
       </c>
       <c r="M23" s="1">
-        <v>1303.670000</v>
+        <v>1303.67</v>
       </c>
       <c r="N23" s="1">
-        <v>-204.797000</v>
+        <v>-204.797</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>407.582996</v>
+        <v>407.58299599999998</v>
       </c>
       <c r="Q23" s="1">
         <v>0.113217</v>
       </c>
       <c r="R23" s="1">
-        <v>1315.360000</v>
+        <v>1315.36</v>
       </c>
       <c r="S23" s="1">
-        <v>-186.462000</v>
+        <v>-186.46199999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>418.344726</v>
+        <v>418.34472599999998</v>
       </c>
       <c r="V23" s="1">
         <v>0.116207</v>
       </c>
       <c r="W23" s="1">
-        <v>1328.540000</v>
+        <v>1328.54</v>
       </c>
       <c r="X23" s="1">
-        <v>-172.705000</v>
+        <v>-172.70500000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>428.353464</v>
+        <v>428.35346399999997</v>
       </c>
       <c r="AA23" s="1">
         <v>0.118987</v>
       </c>
       <c r="AB23" s="1">
-        <v>1346.040000</v>
+        <v>1346.04</v>
       </c>
       <c r="AC23" s="1">
-        <v>-170.470000</v>
+        <v>-170.47</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
         <v>438.442091</v>
       </c>
       <c r="AF23" s="1">
-        <v>0.121789</v>
+        <v>0.12178899999999999</v>
       </c>
       <c r="AG23" s="1">
-        <v>1358.850000</v>
+        <v>1358.85</v>
       </c>
       <c r="AH23" s="1">
-        <v>-180.003000</v>
+        <v>-180.00299999999999</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>448.685966</v>
+        <v>448.68596600000001</v>
       </c>
       <c r="AK23" s="1">
         <v>0.124635</v>
       </c>
       <c r="AL23" s="1">
-        <v>1379.440000</v>
+        <v>1379.44</v>
       </c>
       <c r="AM23" s="1">
-        <v>-209.949000</v>
+        <v>-209.94900000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>459.268112</v>
+        <v>459.26811199999997</v>
       </c>
       <c r="AP23" s="1">
-        <v>0.127574</v>
+        <v>0.12757399999999999</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1400.960000</v>
+        <v>1400.96</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.981000</v>
+        <v>-253.98099999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>470.378001</v>
+        <v>470.37800099999998</v>
       </c>
       <c r="AU23" s="1">
         <v>0.130661</v>
       </c>
       <c r="AV23" s="1">
-        <v>1425.220000</v>
+        <v>1425.22</v>
       </c>
       <c r="AW23" s="1">
-        <v>-314.384000</v>
+        <v>-314.38400000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>481.416849</v>
+        <v>481.41684900000001</v>
       </c>
       <c r="AZ23" s="1">
-        <v>0.133727</v>
+        <v>0.13372700000000001</v>
       </c>
       <c r="BA23" s="1">
-        <v>1444.200000</v>
+        <v>1444.2</v>
       </c>
       <c r="BB23" s="1">
-        <v>-366.994000</v>
+        <v>-366.99400000000003</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>492.411283</v>
+        <v>492.41128300000003</v>
       </c>
       <c r="BE23" s="1">
-        <v>0.136781</v>
+        <v>0.13678100000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1527.510000</v>
+        <v>1527.51</v>
       </c>
       <c r="BG23" s="1">
-        <v>-618.652000</v>
+        <v>-618.65200000000004</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>503.381453</v>
+        <v>503.38145300000002</v>
       </c>
       <c r="BJ23" s="1">
-        <v>0.139828</v>
+        <v>0.13982800000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1678.210000</v>
+        <v>1678.21</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1073.290000</v>
+        <v>-1073.29</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>514.001176</v>
+        <v>514.00117599999999</v>
       </c>
       <c r="BO23" s="1">
-        <v>0.142778</v>
+        <v>0.14277799999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1968.060000</v>
+        <v>1968.06</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1867.120000</v>
+        <v>-1867.12</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>524.708281</v>
+        <v>524.70828100000006</v>
       </c>
       <c r="BT23" s="1">
-        <v>0.145752</v>
+        <v>0.14575199999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>2354.360000</v>
+        <v>2354.36</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2791.020000</v>
+        <v>-2791.02</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>535.695297</v>
+        <v>535.69529699999998</v>
       </c>
       <c r="BY23" s="1">
-        <v>0.148804</v>
+        <v>0.14880399999999999</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2838.050000</v>
+        <v>2838.05</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3800.010000</v>
+        <v>-3800.01</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>548.932425</v>
+        <v>548.93242499999997</v>
       </c>
       <c r="CD23" s="1">
-        <v>0.152481</v>
+        <v>0.15248100000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>4268.960000</v>
+        <v>4268.96</v>
       </c>
       <c r="CF23" s="1">
-        <v>-6251.190000</v>
+        <v>-6251.19</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>376.442173</v>
+        <v>376.44217300000003</v>
       </c>
       <c r="B24" s="1">
-        <v>0.104567</v>
+        <v>0.10456699999999999</v>
       </c>
       <c r="C24" s="1">
-        <v>1242.240000</v>
+        <v>1242.24</v>
       </c>
       <c r="D24" s="1">
-        <v>-310.967000</v>
+        <v>-310.96699999999998</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>386.885935</v>
+        <v>386.88593500000002</v>
       </c>
       <c r="G24" s="1">
-        <v>0.107468</v>
+        <v>0.10746799999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1267.810000</v>
+        <v>1267.81</v>
       </c>
       <c r="I24" s="1">
-        <v>-267.943000</v>
+        <v>-267.94299999999998</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>397.661521</v>
+        <v>397.66152099999999</v>
       </c>
       <c r="L24" s="1">
         <v>0.110462</v>
       </c>
       <c r="M24" s="1">
-        <v>1303.530000</v>
+        <v>1303.53</v>
       </c>
       <c r="N24" s="1">
-        <v>-205.124000</v>
+        <v>-205.124</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>408.227331</v>
+        <v>408.22733099999999</v>
       </c>
       <c r="Q24" s="1">
         <v>0.113396</v>
       </c>
       <c r="R24" s="1">
-        <v>1315.470000</v>
+        <v>1315.47</v>
       </c>
       <c r="S24" s="1">
-        <v>-186.581000</v>
+        <v>-186.58099999999999</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>418.728101</v>
+        <v>418.72810099999998</v>
       </c>
       <c r="V24" s="1">
         <v>0.116313</v>
       </c>
       <c r="W24" s="1">
-        <v>1328.470000</v>
+        <v>1328.47</v>
       </c>
       <c r="X24" s="1">
-        <v>-172.822000</v>
+        <v>-172.822</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>428.643166</v>
+        <v>428.64316600000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>0.119068</v>
+        <v>0.11906799999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>1345.970000</v>
+        <v>1345.97</v>
       </c>
       <c r="AC24" s="1">
-        <v>-170.376000</v>
+        <v>-170.376</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>438.786346</v>
+        <v>438.78634599999998</v>
       </c>
       <c r="AF24" s="1">
-        <v>0.121885</v>
+        <v>0.12188499999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1358.780000</v>
+        <v>1358.78</v>
       </c>
       <c r="AH24" s="1">
-        <v>-179.944000</v>
+        <v>-179.94399999999999</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
         <v>449.033661</v>
@@ -6240,408 +6656,408 @@
         <v>0.124732</v>
       </c>
       <c r="AL24" s="1">
-        <v>1379.450000</v>
+        <v>1379.45</v>
       </c>
       <c r="AM24" s="1">
-        <v>-209.961000</v>
+        <v>-209.96100000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>459.630192</v>
+        <v>459.63019200000002</v>
       </c>
       <c r="AP24" s="1">
-        <v>0.127675</v>
+        <v>0.12767500000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1400.970000</v>
+        <v>1400.97</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.999000</v>
+        <v>-253.999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>470.803072</v>
+        <v>470.80307199999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>0.130779</v>
+        <v>0.13077900000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>1425.190000</v>
+        <v>1425.19</v>
       </c>
       <c r="AW24" s="1">
-        <v>-314.360000</v>
+        <v>-314.36</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>481.707122</v>
+        <v>481.70712200000003</v>
       </c>
       <c r="AZ24" s="1">
-        <v>0.133808</v>
+        <v>0.13380800000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1444.240000</v>
+        <v>1444.24</v>
       </c>
       <c r="BB24" s="1">
-        <v>-366.980000</v>
+        <v>-366.98</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>492.707891</v>
+        <v>492.70789100000002</v>
       </c>
       <c r="BE24" s="1">
-        <v>0.136863</v>
+        <v>0.13686300000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1527.520000</v>
+        <v>1527.52</v>
       </c>
       <c r="BG24" s="1">
-        <v>-618.667000</v>
+        <v>-618.66700000000003</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>503.777605</v>
+        <v>503.77760499999999</v>
       </c>
       <c r="BJ24" s="1">
-        <v>0.139938</v>
+        <v>0.13993800000000001</v>
       </c>
       <c r="BK24" s="1">
-        <v>1678.170000</v>
+        <v>1678.17</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1073.260000</v>
+        <v>-1073.26</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>514.421751</v>
+        <v>514.42175099999997</v>
       </c>
       <c r="BO24" s="1">
-        <v>0.142895</v>
+        <v>0.14289499999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1967.950000</v>
+        <v>1967.95</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1867.130000</v>
+        <v>-1867.13</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>525.134851</v>
+        <v>525.13485100000003</v>
       </c>
       <c r="BT24" s="1">
         <v>0.145871</v>
       </c>
       <c r="BU24" s="1">
-        <v>2353.370000</v>
+        <v>2353.37</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2791.270000</v>
+        <v>-2791.27</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>536.121725</v>
+        <v>536.12172499999997</v>
       </c>
       <c r="BY24" s="1">
         <v>0.148923</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2837.320000</v>
+        <v>2837.32</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3799.780000</v>
+        <v>-3799.78</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>549.448232</v>
+        <v>549.44823199999996</v>
       </c>
       <c r="CD24" s="1">
-        <v>0.152625</v>
+        <v>0.15262500000000001</v>
       </c>
       <c r="CE24" s="1">
-        <v>4270.060000</v>
+        <v>4270.0600000000004</v>
       </c>
       <c r="CF24" s="1">
-        <v>-6265.240000</v>
+        <v>-6265.24</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>376.783422</v>
+        <v>376.78342199999997</v>
       </c>
       <c r="B25" s="1">
-        <v>0.104662</v>
+        <v>0.10466200000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1242.270000</v>
+        <v>1242.27</v>
       </c>
       <c r="D25" s="1">
-        <v>-311.089000</v>
+        <v>-311.089</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>387.535200</v>
+        <v>387.53519999999997</v>
       </c>
       <c r="G25" s="1">
-        <v>0.107649</v>
+        <v>0.10764899999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1268.000000</v>
+        <v>1268</v>
       </c>
       <c r="I25" s="1">
-        <v>-268.322000</v>
+        <v>-268.322</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
         <v>398.051872</v>
       </c>
       <c r="L25" s="1">
-        <v>0.110570</v>
+        <v>0.11057</v>
       </c>
       <c r="M25" s="1">
-        <v>1303.820000</v>
+        <v>1303.82</v>
       </c>
       <c r="N25" s="1">
-        <v>-204.820000</v>
+        <v>-204.82</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>408.630548</v>
+        <v>408.63054799999998</v>
       </c>
       <c r="Q25" s="1">
         <v>0.113508</v>
       </c>
       <c r="R25" s="1">
-        <v>1315.350000</v>
+        <v>1315.35</v>
       </c>
       <c r="S25" s="1">
-        <v>-186.534000</v>
+        <v>-186.53399999999999</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>419.069350</v>
+        <v>419.06934999999999</v>
       </c>
       <c r="V25" s="1">
         <v>0.116408</v>
       </c>
       <c r="W25" s="1">
-        <v>1328.430000</v>
+        <v>1328.43</v>
       </c>
       <c r="X25" s="1">
-        <v>-172.731000</v>
+        <v>-172.73099999999999</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>428.991817</v>
+        <v>428.99181700000003</v>
       </c>
       <c r="AA25" s="1">
-        <v>0.119164</v>
+        <v>0.11916400000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>1345.780000</v>
+        <v>1345.78</v>
       </c>
       <c r="AC25" s="1">
-        <v>-170.437000</v>
+        <v>-170.43700000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>439.135498</v>
+        <v>439.13549799999998</v>
       </c>
       <c r="AF25" s="1">
-        <v>0.121982</v>
+        <v>0.12198199999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>1358.860000</v>
+        <v>1358.86</v>
       </c>
       <c r="AH25" s="1">
-        <v>-179.981000</v>
+        <v>-179.98099999999999</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>449.454300</v>
+        <v>449.45429999999999</v>
       </c>
       <c r="AK25" s="1">
         <v>0.124848</v>
       </c>
       <c r="AL25" s="1">
-        <v>1379.470000</v>
+        <v>1379.47</v>
       </c>
       <c r="AM25" s="1">
-        <v>-209.958000</v>
+        <v>-209.958</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>460.063694</v>
       </c>
       <c r="AP25" s="1">
-        <v>0.127795</v>
+        <v>0.12779499999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1400.970000</v>
+        <v>1400.97</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.974000</v>
+        <v>-253.97399999999999</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>471.105136</v>
+        <v>471.10513600000002</v>
       </c>
       <c r="AU25" s="1">
-        <v>0.130863</v>
+        <v>0.13086300000000001</v>
       </c>
       <c r="AV25" s="1">
-        <v>1425.220000</v>
+        <v>1425.22</v>
       </c>
       <c r="AW25" s="1">
-        <v>-314.380000</v>
+        <v>-314.38</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>482.065729</v>
+        <v>482.06572899999998</v>
       </c>
       <c r="AZ25" s="1">
         <v>0.133907</v>
       </c>
       <c r="BA25" s="1">
-        <v>1444.240000</v>
+        <v>1444.24</v>
       </c>
       <c r="BB25" s="1">
-        <v>-366.984000</v>
+        <v>-366.98399999999998</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>493.082373</v>
+        <v>493.08237300000002</v>
       </c>
       <c r="BE25" s="1">
-        <v>0.136967</v>
+        <v>0.13696700000000001</v>
       </c>
       <c r="BF25" s="1">
-        <v>1527.520000</v>
+        <v>1527.52</v>
       </c>
       <c r="BG25" s="1">
-        <v>-618.703000</v>
+        <v>-618.70299999999997</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>504.152580</v>
+        <v>504.15258</v>
       </c>
       <c r="BJ25" s="1">
         <v>0.140042</v>
       </c>
       <c r="BK25" s="1">
-        <v>1678.150000</v>
+        <v>1678.15</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1073.320000</v>
+        <v>-1073.32</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>514.832454</v>
+        <v>514.83245399999998</v>
       </c>
       <c r="BO25" s="1">
         <v>0.143009</v>
       </c>
       <c r="BP25" s="1">
-        <v>1967.820000</v>
+        <v>1967.82</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1867.150000</v>
+        <v>-1867.15</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>525.565864</v>
+        <v>525.56586400000003</v>
       </c>
       <c r="BT25" s="1">
-        <v>0.145991</v>
+        <v>0.14599100000000001</v>
       </c>
       <c r="BU25" s="1">
-        <v>2352.290000</v>
+        <v>2352.29</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2790.920000</v>
+        <v>-2790.92</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>536.536873</v>
+        <v>536.53687300000001</v>
       </c>
       <c r="BY25" s="1">
         <v>0.149038</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2837.590000</v>
+        <v>2837.59</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3800.530000</v>
+        <v>-3800.53</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>549.964601</v>
+        <v>549.96460100000002</v>
       </c>
       <c r="CD25" s="1">
-        <v>0.152768</v>
+        <v>0.15276799999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>4287.600000</v>
+        <v>4287.6000000000004</v>
       </c>
       <c r="CF25" s="1">
-        <v>-6252.530000</v>
+        <v>-6252.53</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
         <v>377.431692</v>
       </c>
@@ -6649,238 +7065,238 @@
         <v>0.104842</v>
       </c>
       <c r="C26" s="1">
-        <v>1242.140000</v>
+        <v>1242.1400000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-310.964000</v>
+        <v>-310.964</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>387.915171</v>
+        <v>387.91517099999999</v>
       </c>
       <c r="G26" s="1">
         <v>0.107754</v>
       </c>
       <c r="H26" s="1">
-        <v>1267.920000</v>
+        <v>1267.92</v>
       </c>
       <c r="I26" s="1">
-        <v>-268.493000</v>
+        <v>-268.49299999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>398.395632</v>
+        <v>398.39563199999998</v>
       </c>
       <c r="L26" s="1">
         <v>0.110665</v>
       </c>
       <c r="M26" s="1">
-        <v>1303.310000</v>
+        <v>1303.31</v>
       </c>
       <c r="N26" s="1">
-        <v>-205.159000</v>
+        <v>-205.15899999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>408.978243</v>
+        <v>408.97824300000002</v>
       </c>
       <c r="Q26" s="1">
         <v>0.113605</v>
       </c>
       <c r="R26" s="1">
-        <v>1315.330000</v>
+        <v>1315.33</v>
       </c>
       <c r="S26" s="1">
-        <v>-186.592000</v>
+        <v>-186.59200000000001</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>419.413572</v>
+        <v>419.41357199999999</v>
       </c>
       <c r="V26" s="1">
         <v>0.116504</v>
       </c>
       <c r="W26" s="1">
-        <v>1328.480000</v>
+        <v>1328.48</v>
       </c>
       <c r="X26" s="1">
-        <v>-172.730000</v>
+        <v>-172.73</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>429.404781</v>
+        <v>429.40478100000001</v>
       </c>
       <c r="AA26" s="1">
         <v>0.119279</v>
       </c>
       <c r="AB26" s="1">
-        <v>1345.860000</v>
+        <v>1345.86</v>
       </c>
       <c r="AC26" s="1">
-        <v>-170.481000</v>
+        <v>-170.48099999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>439.564042</v>
+        <v>439.56404199999997</v>
       </c>
       <c r="AF26" s="1">
         <v>0.122101</v>
       </c>
       <c r="AG26" s="1">
-        <v>1358.770000</v>
+        <v>1358.77</v>
       </c>
       <c r="AH26" s="1">
-        <v>-180.012000</v>
+        <v>-180.012</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>449.735500</v>
+        <v>449.7355</v>
       </c>
       <c r="AK26" s="1">
         <v>0.124927</v>
       </c>
       <c r="AL26" s="1">
-        <v>1379.420000</v>
+        <v>1379.42</v>
       </c>
       <c r="AM26" s="1">
-        <v>-209.926000</v>
+        <v>-209.92599999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>460.350382</v>
+        <v>460.35038200000002</v>
       </c>
       <c r="AP26" s="1">
-        <v>0.127875</v>
+        <v>0.12787499999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1400.930000</v>
+        <v>1400.93</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.999000</v>
+        <v>-253.999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>471.471679</v>
+        <v>471.47167899999999</v>
       </c>
       <c r="AU26" s="1">
         <v>0.130964</v>
       </c>
       <c r="AV26" s="1">
-        <v>1425.200000</v>
+        <v>1425.2</v>
       </c>
       <c r="AW26" s="1">
-        <v>-314.363000</v>
+        <v>-314.363</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>482.424369</v>
+        <v>482.42436900000001</v>
       </c>
       <c r="AZ26" s="1">
-        <v>0.134007</v>
+        <v>0.13400699999999999</v>
       </c>
       <c r="BA26" s="1">
-        <v>1444.230000</v>
+        <v>1444.23</v>
       </c>
       <c r="BB26" s="1">
-        <v>-366.936000</v>
+        <v>-366.93599999999998</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>493.738579</v>
+        <v>493.73857900000002</v>
       </c>
       <c r="BE26" s="1">
-        <v>0.137150</v>
+        <v>0.13714999999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1527.560000</v>
+        <v>1527.56</v>
       </c>
       <c r="BG26" s="1">
-        <v>-618.677000</v>
+        <v>-618.67700000000002</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>504.905541</v>
+        <v>504.90554100000003</v>
       </c>
       <c r="BJ26" s="1">
-        <v>0.140252</v>
+        <v>0.14025199999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1678.210000</v>
+        <v>1678.21</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1073.340000</v>
+        <v>-1073.3399999999999</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>515.240177</v>
+        <v>515.24017700000002</v>
       </c>
       <c r="BO26" s="1">
         <v>0.143122</v>
       </c>
       <c r="BP26" s="1">
-        <v>1968.010000</v>
+        <v>1968.01</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1867.040000</v>
+        <v>-1867.04</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>525.980024</v>
+        <v>525.98002399999996</v>
       </c>
       <c r="BT26" s="1">
-        <v>0.146106</v>
+        <v>0.14610600000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>2351.450000</v>
+        <v>2351.4499999999998</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2790.400000</v>
+        <v>-2790.4</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>536.993689</v>
+        <v>536.99368900000002</v>
       </c>
       <c r="BY26" s="1">
-        <v>0.149165</v>
+        <v>0.14916499999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2837.620000</v>
+        <v>2837.62</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3800.720000</v>
+        <v>-3800.72</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
         <v>550.813222</v>
@@ -6889,15 +7305,16 @@
         <v>0.153004</v>
       </c>
       <c r="CE26" s="1">
-        <v>4273.700000</v>
+        <v>4273.7</v>
       </c>
       <c r="CF26" s="1">
-        <v>-6270.070000</v>
+        <v>-6270.07</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>